--- a/NBS-e-NEBS-em-excel.xlsx
+++ b/NBS-e-NEBS-em-excel.xlsx
@@ -7457,13 +7457,13 @@
     <t xml:space="preserve">NEBS</t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 1) A posição 1.0101 não inclui os serviços relacionados com a construção de estruturas em concreto para edifícios, os quais se classificam na subposição 1.0105.40. 
 2) As posições 1.0101 e 1.0102 incluem, além dos serviços de construção, os serviços de reparo.
 3) A posição 1.0101 inclui os serviços de incorporação de imóveis. 
 4) Na posição 1.0102, a expressão “autoestradas elevadas” diz respeito aos viadutos e demais obras de arte de engenharia, que servem, por exemplo, para transpor outras vias (rodovias ou ferrovias), vales, rios e depressões nos terrenos, dentre outros obstáculos à circulação de veículos. 
-5) Na subposição 1.0105.70, os “serviços de andaimes” incluem os serviços de montagem e desmontagem dos mesmos. 
-Considerações Gerais
+5) Na subposição 1.0105.70, os “serviços de andaimes” incluem os serviços de montagem e desmontagem dos mesmos.
+[Considerações Gerais]
 O Capítulo 1 inclui todos os serviços de pré-edificação; os serviços pertinentes a novas construções e os serviços pertinentes a reparos, alterações e restaurações de edifícios residenciais, não residenciais e trabalhos de engenharia civil. Os itens aqui classificados são os serviços essenciais no processo de edificação de diferentes tipos de construção e no atingimento do resultado das atividades de construção. Inclui também o aluguel de equipamentos, com operador, para construção ou demolição de edifícios ou trabalhos de engenharia civil. 
 Ressalte-se que o presente Capítulo comporta, além da construção de edificações completas e de outros serviços abrangentes de construção das posições 1.0101 e 1.0102, também os serviços prestados isoladamente, tais como os de pré-edificação (dos quais são exemplos: a demolição, a perfuração de poços, a escavação de terrenos e a remoção de terra), os de montagem de pré-fabricados e os especializados de construção (posições 1.0103 a 1.0105), os de instalação (posição 1.0106) e os de acabamento (posição 1.0107). 
 </t>
@@ -8061,11 +8061,12 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) Os “serviços de intermediação na distribuição de mercadorias” abrangem, exclusivamente, as atividades de intermediação de mercadorias de terceiros no comércio atacadista e varejista e os serviços prestados por agentes comissionados. Assim, não estão incluídas na Nomenclatura Brasileira de Serviços (NBS) as compras e vendas dos bens alvo dessa intermediação.
+    <t xml:space="preserve">[Notas]
+1) Os “serviços de intermediação na distribuição de mercadorias” abrangem, exclusivamente, as atividades de intermediação de mercadorias de terceiros no comércio atacadista e varejista e os serviços prestados por agentes comissionados. Assim, não estão incluídas na Nomenclatura Brasileira de Serviços (NBS) as compras e vendas dos bens alvo dessa intermediação.
 2) O comércio, seja atacadista seja varejista, é tomado, exclusivamente no âmbito da presente Nomenclatura, como uma operação mista por envolver um conjunto de serviços com entrega de mercadorias, cuja propriedade é daquele que pratica essas modalidades comerciais. 
 3) Os “serviços de despacho aduaneiro” são aqueles relacionados com o despacho de bens ou de mercadorias, inclusive bagagem de viajante, na importação ou na exportação, transportados por qualquer via. 
 4) No contexto da posição 1.0205, quanto às operações realizadas sob a jurisdição e de acordo com a normativa brasileira, a comercialização da mercadoria energia elétrica, classificada como mercadoria na Nomenclatura Comum do Mercosul (NCM), só pode ser efetuada no âmbito da Câmara de Comercialização de Energia Elétrica (CCEE). 
-Considerações Gerais
+[Considerações Gerais]
 O presente Capítulo abrange diversos tipos de serviços executados nos canais de distribuição de mercadorias, bem como o comércio nas suas modalidades atacadista e varejista. Nesses canais de distribuição são desenvolvidos típicos serviços, o que não ocorre nas duas mencionadas espécies de comércio. 
 Todavia, tendo em mente a importância do comércio no âmbito econômico, optou-se por arrolar o comércio, atacadista e varejista, na presente Nomenclatura. Em consequência, para os fins que se destinam a NBS, o comércio será tomado, mutatis mutandis, da mesma forma que o fornecimento de alimentação no Capítulo 3.
 Para os fins da NBS o comércio, seja ele atacadista seja varejista, constitui-se na reunião de um conjunto de serviços, que ocorrem nas etapas de pré-venda, venda e pós-venda, associado à entrega da mercadoria. Assim, o comércio na NBS é uma operação mista com a circulação da mercadoria.  
@@ -8165,12 +8166,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) O fornecimento de alimentação e bebidas, embora envolva a prestação de serviços e a entrega de mercadoria, configurando dessa maneira uma operação mista, classifica-se no presente capítulo.
+    <t xml:space="preserve">[Notas]
+1) O fornecimento de alimentação e bebidas, embora envolva a prestação de serviços e a entrega de mercadoria, configurando dessa maneira uma operação mista, classifica-se no presente capítulo.
 2) “Alimentação” engloba o fornecimento de comida e refeições, com ou sem a oferta de bebidas. O termo “refeição” faz referência à porção de alimentos geralmente consumidos em horários regulares, como café da manhã, almoço e jantar.
 3) O fornecimento de bebidas da posição 1.0302 restringe-se à oferta de bebidas.
 4) “Hospedagem” consiste no acolhimento de pessoas que se encontram afastadas de suas residências com o propósito de trabalho, estudo ou lazer, mediante oferta de acomodações com os serviços necessários ao bem-estar do indivíduo, tais como instalações sanitárias. Pode ser entendido por aquilo que se convencionou chamar de hotelaria, assim como a oferta de outros tipos de estalagem, por períodos certos de tempo.
 5) Os serviços das subposições 1.0301.1 e 1.0301.2 ocorrem mesmo quando prestados em trens (dining cars) ou a bordo de navios, não se confundindo com os serviços prestados mediante contrato com companhia de transporte (comissaria ou catering) da subposição 1.0301.32. 
-Considerações Gerais
+[Considerações Gerais]
 Estão incluídos no presente Capítulo as seguintes operações:
 a) Fornecimento de alimentação (posição 1.0301).
 b) Fornecimento de bebidas (posição 1.0302).
@@ -8298,7 +8300,8 @@
     <t xml:space="preserve">Esta subposição residual inclui todos os demais serviços de quarto ou unidades de hospedagem em residências, pensões e clubes residenciais, bem como os serviços destinados a acolher veículos e permitir que seu ocupante durma dentro deles.</t>
   </si>
   <si>
-    <t xml:space="preserve">1) No âmbito deste Capítulo, entende-se por:
+    <t xml:space="preserve">[Notas]
+1) No âmbito deste Capítulo, entende-se por:
 a) Local: a região que compreende as áreas urbana e rural de um município e, ainda, a região metropolitana.
 b) Área metropolitana ou região metropolitana: o centro populacional resultante da reunião de dois ou mais municípios integrados tanto do ponto de vista econômico quanto político e cultural.
 c) Ônibus: o veículo automotor de transporte coletivo com capacidade para mais de vinte passageiros sentados, ainda que, em virtude de adaptações com vistas à maior comodidade destes, possa transportar um número menor de passageiros.
@@ -8317,7 +8320,7 @@
 3) Excluem-se deste Capítulo as operações de:
 a) “Afretamento por tempo” de embarcações projetadas para o transporte de cargas, que se classificam na posição 1.0506 (Capítulo 5).
 b) “Afretamento a casco nu”, nos quais o afretador passa a ter a posse, o uso e o controle da embarcação, por tempo determinado, incluindo o direito de designar o comandante e a tripulação, que se classificam, na subposição 1.1101.15 (Capítulo 11).
-Considerações Gerais
+[Considerações Gerais]
 O Capítulo 4 inclui os serviços prestados com a finalidade de transportar pessoas nas posições 1.0401, 1.0402 e 1.0403, a locação de veículos destinados a essa finalidade, acompanhados de operador, na posição 1.0404 e, ainda, o afretamento de embarcações para passageiros por tempo, na posição 1.0405.
 Com exceção da posição 1.0404, as demais posições são ordenadas conforme a distância percorrida: 
 a) Local (posição 1.0401).
@@ -8713,7 +8716,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) No âmbito deste Capítulo, entende-se por:
+    <t xml:space="preserve">[Notas]
+1) No âmbito deste Capítulo, entende-se por:
 a) Carga a granel: a carga não embalada, quase sempre homogênea, e que é carregada diretamente nos meios de transporte apropriados, sem embalagem e em grandes quantidades. Este tipo de carga tem três espécies: i) granel sólido, que consiste em sólido fragmentado ou grão vegetal, como carvão, sal, trigo em grão e minério de ferro; ii) granel líquido ou liquefeito, que inclui o petróleo e seus derivados, como a gasolina e o óleo diesel, além de álcool combustível, óleo de soja e melaço, e os granéis liquefeitos, exceto o “gás liquefeito de petróleo” (GLP).
 b) Cargas vivas: os animais vivos, vertebrados e invertebrados, os vegetais plantados, bem como os microrganismos.
 c) Cargas especiais: aquelas que, por seu formato, requisitos de segurança ou atendimento de parâmetros exigem medidas especiais para serem transportadas, tais como as cargas de grande porte - das quais são exemplos as grandes peças para unidades industriais ou para usinas de energia - e as cargas perigosas - entendidas como toda substância ou artigo encontrado na natureza ou produzido por qualquer processo que, por suas características físico-químicas, representem risco à saúde das pessoas, à segurança pública ou ao meio ambiente.
@@ -8738,7 +8742,7 @@
 4) Excluem-se, ainda, deste Capítulo, as operações de:
 a) Afretamento por tempo de embarcações projetadas para o transporte de passageiros, que se classificam na posição 1.0405 (Capítulo 4).
 b) Locação de navios e outras embarcações, sem tripulação (afretamento a casco nu), na qual o afretador passa a ter a posse, o uso e o controle da embarcação, por tempo determinado, incluindo o direito de designar o comandante e a tripulação, que se classificam na subposição 1.1101.15 (Capítulo 11).
-Considerações Gerais
+[Considerações Gerais]
 Este Capítulo está dividido em seis posições que reúnem, conforme a especialização, os serviços de:
 - Transportes terrestres de cargas, nas modalidades rodoviárias e ferroviárias, bem como por meio de dutos (posição 1.0501).
 - Transporte aquaviário de cargas, quais sejam os de navegação interior, costeiro e transoceânico (posição 1.0502).
@@ -9127,7 +9131,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 1) A armazenagem em depósitos é feita em armazéns gerais, que são estabelecimentos que têm por finalidade a guarda e conservação de mercadorias e a emissão de títulos especiais em armazéns gerais alfandegados. 
 2) Os serviços de apoio ao transporte incluem, dentre outros, os serviços de reboque, vendas e reservas de passagem realizadas em terminais de passageiros, serviços de bagagem e “achados e perdidos”. 
 3) Os “serviços de praticagem”, classificados na posição 1.0605 são: 
@@ -9136,7 +9140,7 @@
 4) Na posição 1.0605, os “serviços de salvamento de embarcações” incluem, por exemplo, os serviços de desencalhe, reflutuação, recuperação de cargas e de embarcações. 
 5) Os serviços de navegação de apoio, compreendendo o apoio marítimo e portuário, classificam-se na subposição 1.0605.40. 
 6) Estão excluídos deste Capítulo os serviços auxiliares ao transporte de mudanças, tais como empacotamento e carregamento de mobílias domésticas e objetos de escritório, que se classificam no capítulo 5 de acordo com o modal de transporte.
-Considerações Gerais
+[Considerações Gerais]
 O Capítulo 6 reúne os serviços de apoio ao transporte de cargas e passageiros. Esses serviços estão compilados em nove posições:
 - Manuseio de cargas (posição 1.0601).
 - Armazenagem (posição 1.0602).
@@ -9431,7 +9435,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 1) Na posição 1.0701:
 a) “Serviço postal” é o serviço de recebimento, expedição, transporte e entrega de objetos de correspondência, valores e encomendas, prestados no âmbito de uma obrigação de serviço universal.
 b) “Objeto postal” compreende toda a correspondência, valor ou encomenda encaminhado por via postal.
@@ -9442,7 +9446,7 @@
 g) “Telegrama” corresponde às mensagens urgentes e confidenciais transmitidas pela internet ou por outro meio eletrônico para o local em que a mensagem será impressa e auto-envelopada para entrega no endereço do destinatário. O serviço de telegrama é prestado no âmbito de uma obrigação de serviço universal.
 2) Na posição 1.0702, classificam-se os serviços de coleta, transporte, remessa ou entrega de documentos ou encomendas, exceto os serviços postais prestados a título de obrigação universal e os serviços de remessa expressa.
 3) Na posição 1.0703, entende-se por “remessa expressa” a encomenda, transportada sob as condições de serviço expresso e entrega porta a porta, composta de documentos ou bens transportados em um ou mais volumes amparados por conhecimento de carga. 
-Considerações Gerais
+[Considerações Gerais]
 O presente Capítulo abriga os serviços postais e de telegrama (posição 1.0701); os serviços de coleta, remessa ou entrega de documentos ou encomendas, exceto remessas expressas (posição 1.0702) e os serviços de remessas expressas (posição 1.0703).
 </t>
   </si>
@@ -9473,11 +9477,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 1) Na subposição 1.0801.20, inclui-se a manutenção de medidores de eletricidade.
 2) Na subposição 1.0802.10, inclui-se a manutenção dos medidores de água.
 3) Na posição 1.0803, inclui-se a distribuição de qualquer combustível gasoso por meio de tubulações e a manutenção de medidores de gás.
-Considerações Gerais
+[Considerações Gerais]
 O Capítulo 8 abrange os serviços de transmissão e distribuição de eletricidade, água e gás canalizado, incluindo a manutenção dos medidores de eletricidade, água e gás.
 </t>
   </si>
@@ -9537,7 +9541,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 1) “Banco de investimento” é instituição financeira de natureza privada, especializada em operações de participação societária de caráter temporário, de financiamento da atividade produtiva por meio do suprimento de capital fixo e de giro e de administração de recursos de terceiros.
 2) “Serviços de previdência complementar” são aqueles ofertados pelas entidades de previdência complementar, as quais têm por objeto principal a administração e execução de planos de benefícios de natureza previdenciária. Esses planos são facultativos, de caráter complementar e organizados de forma autônoma em relação ao regime geral de previdência social e baseiam-se na constituição de reservas que garantam o benefício. 
  3) As “entidades de previdência complementar” classificam-se em entidades fechadas de previdência complementar (EFPCs) e em entidades abertas de previdência complementar (EAPCs):
@@ -9555,7 +9559,7 @@
 e) Fomento comercial (factoring): a prestação cumulativa e contínua de assessoria creditícia, mercadológica, gestão de crédito, seleção de riscos, administração de contas a pagar e a receber, compra de direitos creditórios resultantes de vendas mercantis a prazo ou de prestação de serviços.
 f) Trust: as relações jurídicas criadas, em vida ou após a morte, por determinada pessoa (o outorgante ou instituidor), com a finalidade de colocar seus bens sob o controle de uma outra pessoa (o trustee ou curador), que irá administrá-los em favor do beneficiário ou para alguma finalidade específica. 
 6) Na posição 1.0910 classificam-se, exclusivamente, os serviços de planos privados de assistência à saúde, os quais não preveem a opção de livre escolha do prestador de serviços com reembolso, ao contrário dos serviços de seguro saúde, que preveem essa opção e se classificam na subposição 1.0903.21.
-Considerações gerais
+[Considerações Gerais]
 O Capítulo 9 reúne as seguintes posições:
 - Serviços financeiros, exceto bancos de investimento, serviços de seguros e previdência complementar (posição 1.0901).
 - Serviços de banco de investimento (posição 1.0902).
@@ -10457,7 +10461,7 @@
     <t xml:space="preserve">Esta posição residual do inclui todos os demais serviços financeiros e serviços relacionados não classificados nas posições anteriores deste capítulo. </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 1) Não se incluem no presente Capítulo as incorporações imobiliárias, que se classificam na posição 1.0101.
 2) Imóvel é o bem constituído de terreno e eventuais benfeitorias a ele incorporadas. Os imóveis podem ser classificados em função de:
 a) Titularidade, como próprios ou de terceiros.
@@ -10470,7 +10474,7 @@
 c) Imóveis cuja natureza difere das categorias anteriores, tais como os imóveis comercial-industriais, os templos religiosos, os imóveis públicos e terrenos urbanos ou rurais.
 5) A posição 1.1001 refere-se a imóveis de terceiros.
 6) A posição 1.1002 compreende a operação em que o imóvel é colocado à disposição do locatário, que detém a posse durante determinado período, sendo o locador ou o sublocador remunerado de acordo com esse período. Neste caso, não se confunde com os serviços de administração na locação.
-Considerações Gerais
+[Considerações Gerais]
 Os serviços imobiliários sob comissão ou contrato (posição 1.1001) referem-se a imóveis de terceiros. Tais serviços subdividem-se em cinco espécies distintas:
 - Serviços de administração e locação de imóveis, onde se inserem os serviços relacionados com a assessoria para obter a locação de imóveis residenciais e não residenciais ou administrá-los para o proprietário. São considerados não residenciais os imóveis comerciais, industriais e outros tipos cuja natureza difira dessas categorias, como por exemplo, imóveis comercial-industriais, templos religiosos e imóveis públicos, além daqueles de uso misto residencial e não residencial em que prevaleça o uso não residencial. Esses imóveis podem ser urbanos ou rurais.
 - Serviços envolvidos na compra e venda de imóveis que correspondem, basicamente, aos serviços de intermediação na compra, venda ou permuta de imóveis urbanos ou rurais.
@@ -10560,7 +10564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 1) Classificam-se no presente capítulo somente as operações de arrendamento mercantil operacional. As operações de arrendamento mercantil financeiro classificam-se no Capítulo 9.
 2) Considera-se “arrendamento mercantil operacional” a modalidade de arrendamento mercantil em que:
 a) As contraprestações a serem pagas pela arrendatária contemplem o custo de arrendamento do bem e os serviços inerentes à sua colocação à disposição da arrendatária, não podendo o total dos pagamentos da espécie ultrapassar 90% do custo do bem arrendado.
@@ -10577,7 +10581,7 @@
 e) Programas de computador (software): a expressão de um conjunto organizado de instruções em linguagem natural ou codificada, contida em suporte físico de qualquer natureza, de emprego necessário em máquinas automáticas de tratamento da informação, dispositivos, instrumentos ou equipamentos periféricos, baseados em técnica digital ou análoga, para fazê-los funcionar de modo e para fins determinados;
 f) Obra audiovisual: a resultante da fixação de imagens com ou sem som, que tenha a finalidade de criar, por meio de sua reprodução, a impressão de movimento, independentemente dos processos de sua captação, do suporte usado inicial ou posteriormente para fixá-lo, bem como dos meios utilizados para sua veiculação.
 g) Franquia ou franchising: o sistema pelo qual um franqueador cede ao franqueado o direito de uso de marca ou patente, associado ao direito de distribuição exclusiva ou semi-exclusiva de produtos ou serviços e, eventualmente, também ao direito de uso de tecnologia de implantação e administração de negócio ou sistema operacional desenvolvido ou detido pelo franqueador, mediante remuneração direta ou indireta, sem que, no entanto, fique caracterizado vínculo empregatício.
-Considerações Gerais
+[Considerações Gerais]
 O Capítulo 11 da NBS abrange operações diversas como o arrendamento mercantil operacional e a locação de máquinas e equipamentos, sem operador; o licenciamento e a cessão temporária ou definitiva de direitos de autor e conexos; o licenciamento e a cessão definitiva de direitos sobre propriedade industrial; o licenciamento e a cessão definitiva de outros direitos e as franquias.
 1) Arrendamento mercantil operacional:
 O arrendamento mercantil, também dito leasing, é o negócio jurídico realizado entre pessoa jurídica, na qualidade de arrendadora, e pessoa física ou jurídica, na qualidade de arrendatária ou arrendante, e que tenha por objeto o arrendamento de bens adquiridos pela arrendadora de um fornecedor, segundo especificações da arrendatária e para uso próprio desta.
@@ -11443,7 +11447,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 1) No presente Capítulo, entende-se por:
 a) Pesquisa: o processo que objetiva gerar, corroborar ou refutar conhecimentos, podendo assumir as formas de pesquisa básica ou pesquisa aplicada.
 b) Pesquisa Básica: a pesquisa onde os trabalhos experimentais ou teóricos são desenvolvidos com o intuito de obter novos conhecimentos sobre fenômenos e fatos observáveis, ainda não elucidados.
@@ -11455,7 +11459,7 @@
 a) Na subposição de segundo nível correspondente à ciência natural que predominar sobre as demais na realização do serviço.
 b) Na subposição residual, quando na realização do serviço não houver predominância de nenhuma das ciências ou humanidades sobre as demais.
 4) Para fins de classificação na posição 1.1203, a interdisciplinaridade dos serviços exige a execução de pelo menos um serviço de pesquisa e desenvolvimento na área de ciências naturais, engenharia e tecnologia, classificado na posição 1.1201, conjugada com a execução de outro serviço de pesquisa e desenvolvimento na área de ciências sociais ou humanidades, classificado na posição 1.1202. Todavia, caso haja a predominância de uma dessas ciências ou humanidades sobre as demais, cada um dos serviços deve ser classificado na posição original correspondente. 
-Considerações Gerais
+[Considerações Gerais]
 Definem-se “serviços de pesquisa e desenvolvimento” como os serviços relacionados ao conjunto de trabalhos criativos, efetuados de forma sistemática a fim de proporcionar o aumento do estoque de conhecimento do homem, da cultura e da sociedade. Esses trabalhos buscam ampliar a base de conhecimentos científicos e tecnológicos como também promover o uso desses conhecimentos para o desenvolvimento de novas aplicações, tais como produtos ou processos inovadores ou tecnologicamente aprimorados.
 O Capítulo 12 está dividido em três distintos gêneros de serviços:
 - Serviços de pesquisa e desenvolvimento em ciências, engenharia e tecnologia (posição 1.1201).
@@ -11594,11 +11598,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 1) Na posição 1.1301, os “serviços de documentação e certificação” incluem, por exemplo, os serviços de concessão de registro de patentes, direitos autorais e outras propriedades intelectuais, certificados de origem de mercadorias e atestados de inexistência de produção nacional de máquinas e equipamentos.
 2) Na posição 1.1303, “pessoa jurídica” é a união ou sociedade de pessoas físicas que adquire, em função da lei, personalidade própria e distinta da de seus membros, para fins de direitos e obrigações. É também “pessoa jurídica” a união ou sociedade de pessoas jurídicas que adquire, em função da lei, personalidade própria e distinta da de seus membros.
 3) Na posição 1.1304, os “serviços notariais e de registro” incluem, por exemplo, autenticar fatos, lavrar escrituras e procurações públicas, lavrar testamentos públicos e aprovar os cerrados, lavrar atas notariais, reconhecer firmas e autenticar cópias.
-Considerações Gerais
+[Considerações Gerais]
 O presente Capítulo reúne quatro distintos gêneros de serviços, quais sejam:
 - Serviços jurídicos, inclusive os de consultoria (posição 1.1301).
 - Serviços de auditoria, contabilidade e escrituração mercantil (posição 1.1302).
@@ -11762,14 +11766,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas 
+    <t xml:space="preserve">[Notas]
 1) Não se incluem no presente Capítulo os “serviços de consultoria imobiliária”, que se classificam na posição 1.1001.
 2) No âmbito deste Capítulo, projeto deve ser entendido como o conjunto de desenhos, especificações e documentos que possibilitam a construção de um bem, tais como edificações, residenciais ou não, máquinas e embarcações.
 3) Na posição 1.1402, consideram-se “prédios históricos” aqueles que são tombados pelo Instituto do Patrimônio Histórico e Artístico Nacional (IPHAN) ou congêneres nacionais e internacionais.
 4) Na posição 1.1408:
 a) Os “serviços videográficos de eventos” não incluem os serviços de produção de programas de televisão, que se classificam na posição 1.2501.
 b) Os “serviços fotográficos especiais” não incluem fotografias obtidas por satélites para fins de obtenção de dados topográficos, que se classificam na posição 1.1404, ou fotografias jornalísticas, que se classificam na posição 1.1704.
-Considerações Gerais
+[Considerações Gerais]
 O presente Capítulo congrega, em quinze diferentes posições, todos os serviços empresariais e de produção, exceto os de pesquisa e desenvolvimento (tratados no Capítulo 12), os jurídicos e contábeis (inseridos no Capítulo 13) e os serviços de tecnologia da informação (Capítulo 15). 
 Assim, há aqui uma gama de serviços profissionais e técnicos, abaixo relacionadas:
 - Serviços de gestão empresarial, consultoria em gestão empresarial e assessoria empresarial (posição 1.1401).
@@ -12725,7 +12729,7 @@
     <t xml:space="preserve">Esta posição residual inclui todos os demais serviços profissionais, técnicos e empresariais que não se classificam nas posições anteriores.</t>
   </si>
   <si>
-    <t xml:space="preserve">Notas 
+    <t xml:space="preserve">[Notas]
 1) No presente Capítulo:
 a) A expressão “tecnologia da informação” é tomada como equivalente à aplicação de diferentes ramos da tecnologia para criar, armazenar, trocar e usar informações, apresentadas nos mais diversos formatos, e que, para tanto, faz uso de equipamentos para informática (hardware) e seus dispositivos periféricos, programas de computador e seus recursos, sistemas de telecomunicações, gestão de dados e informações.
 b) A expressão “programas não personalizados (não customizados)” diz respeito aos programas para computadores adquiridos na forma que se apresentam e que, em regra, não permitem alterações com o intuito de atender necessidades particulares.
@@ -12733,7 +12737,7 @@
 d) Por “circuito integrado”, entende-se um produto, em forma final ou intermediária, que possui elementos, dos quais pelo menos um seja ativo, cujas interconexões, totais ou parte delas, são integralmente formadas sobre uma unidade (peça) de pequenas dimensões, ou em seu interior. O “circuito integrado” tem por finalidade desempenhar funções eletrônicas determinadas.
 2) O projeto, o desenvolvimento e a instalação de games e de jogos eletrônicos classificam-se na posição 1.1502 e a manutenção de games e de jogos eletrônicos classifica-se na posição 1.1508.
 3) Estão excluídos deste capítulo os serviços de pesquisa e desenvovimento em Tecnologia da Informação e Comunicação, que se classificam no Capítulo 12.
-Considerações Gerais
+[Considerações Gerais]
 O presente Capítulo compreende os serviços de tecnologia da informação que estão congregados em dez distintas posições, que abarcam: 
 - Consultoria, segurança e suporte (posição 1.1501).
 - Projeto e desenvolvimento de aplicativos e programas (posição 1.1502).
@@ -12996,7 +13000,7 @@
     <t xml:space="preserve">Esta posição residual inclui os demais serviços de tecnologia da informação que não se classificam nas posições anteriores.</t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 1) No presente Capítulo:
 a) “Serviços de telecomunicações” são entendidos como aqueles que possibilitam a oferta de telecomunicações.
 b) “Telecomunicação” é a transmissão, emissão ou recepção, por fio, radioeletricidade, meios ópticos ou qualquer outro processo eletromagnético, de símbolos, caracteres, sinais, escritos, imagens, sons ou informações de qualquer natureza.
@@ -13005,7 +13009,7 @@
 e) “Backbone” compreende as ligações centrais de um sistema informatizado mais amplo, tipicamente de elevado desempenho, e que possibilita o fluxo de dados, voz e imagens pela rede mundial de computadores. 
 2) Por “agência de notícias” entende-se a empresa jornalística cujo foco de atuação é a difusão de informações e notícias, coletadas diretamente das fontes, para os veículos de comunicação, tais como jornais, revistas, rádios e televisões.
 3) Estão excluídos deste capítulo os serviços de pesquisa e desenvovimento em Tecnologia da Informação e Comunicação, que se classificam no Capítulo 12.
-Considerações Gerais
+[Considerações Gerais]
 No presente Capítulo se classificam os serviços de: 
 - Telecomunicação (posição 1.1701), que incluem telefonia fixa e móvel, transmissão de dados e redes privadas.
 - Oferta de informações (posições 1.1702, 1.1703, 1.1704 e 1.1705), tal como na oferta de conteúdo pela rede mundial de computadores, oferta de conteúdo de acesso imediato, agências de notícias e em bibliotecas e arquivos.
@@ -13279,7 +13283,8 @@
     <t xml:space="preserve">Esta subposição residual inclui os serviços de transmissão, programação e distribuição de programas de rádio e televisão não classificados em subposições anteriores. </t>
   </si>
   <si>
-    <t xml:space="preserve">1) Na posição 1.1801:
+    <t xml:space="preserve">[Notas]
+1) Na posição 1.1801:
 a) O termo “recrutamento” se refere a um conjunto de técnicas e procedimentos que objetivam atrair candidatos potencialmente qualificados, capazes de assumirem cargos dentro de uma entidade no Brasil ou no exterior. Após o recrutamento dos candidatos, passa-se à etapa de seleção daqueles mais aptos aos cargos oferecidos pela entidade. 
 b) No “serviço de fornecimento de mão de obra” a empresa prestadora do serviço contrata, remunera e dirige o trabalho realizado por seus trabalhadores, ou subcontrata outras empresas para a realização destes serviços, e a empresa contratante transfere a execução de quaisquer de suas atividades à prestadora do serviço, não se configurando vínculo empregatício entre os trabalhadores da contratada e a contratante do serviço de fornecimento de mão de obra. 
 2) Na posição 1.1802, os “serviços de consultoria em segurança” não incluem os serviços de segurança em tecnologia da informação, que se classificam na posição 1.1501.
@@ -13297,7 +13302,7 @@
 7) Na posição 1.1806, entende-se por:
 a) “Call center” a promoção de vendas e serviços, a atividade de cobrança, o atendimento e o suporte técnico ao consumidor, através de telefone.
 b) “Agenciamento” de modelos, artistas e atletas, o serviço prestado por uma pessoa ou empresa autorizada a agir e negociar em nome do agenciado com o objetivo de efetivar contratos comerciais (intermediação de negociação entre o agenciado e o contratante), incluindo, entre outros, os contratos de exploração de imagem.
-Considerações Gerais
+[Considerações Gerais]
 Os serviços de apoio às atividades empresariais são aqueles que auxiliam na consecução destas atividades.
 Esses serviços estão divididos no presente Capítulo em seis distintos gêneros, quais sejam:
 - Serviços de seleção de pessoal e fornecimento de mão de obra (posição 1.1801).
@@ -13801,7 +13806,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 1) No presente Capítulo, entende-se por:
 a) Agricultura: a atividade econômica voltada para a exploração ordenada de recursos naturais vegetais em ambiente natural e protegido, sendo representada pelo cultivo de lavouras, formado por quatro segmentos:
 - Produção de lavouras temporárias.
@@ -13817,7 +13822,7 @@
 d) Pesca: a atividade econômica que abrange o uso de recursos pesqueiros em águas marinhas, águas salobras e em água doce, objetivando a captura de peixes, crustáceos, moluscos e outros organismos ou produtos aquáticos, tais como plantas aquáticas, pérolas, corais e esponjas.
 e) Aquicultura: o processo de produção que envolve o cultivo de organismos aquáticos, dentre eles os peixes, crustáceos, moluscos, rãs, plantas aquáticas, jacarés e anfíbios, com o auxílio de técnicas que intensificam a produtividade desses organismos além da sua capacidade natural de desenvolvimento. 
 2) A pesca se refere à exploração, pelo público, de organismos aquáticos de propriedade comum, no que se difere da aquicultura, que corresponde ao cultivo de organismos aquáticos de que se tem a propriedade. 
-Considerações Gerais
+[Considerações Gerais]
 O presente Capítulo reúne os serviços de apoio à agricultura, pecuária, produção florestal, pesca, aquicultura, mineração, transmissão e distribuição de eletricidade, gás e água. Esses serviços foram dispostos, segundo o grau crescente de especialização, em três distintas posições:
 - Serviços de apoio a agricultura, pecuária, produção florestal (silvicultura), pesca e aquicultura (posição 1.1901).
 - Serviços de apoio à mineração (posição 1.1902).
@@ -13964,14 +13969,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 1) No presente Capítulo, entende-se por:
 a) Manutenção: o conjunto de ações realizadas com o objetivo de manter um bem no estado em que possa realizar sua função requerida, como cuidados técnicos indispensáveis ao funcionamento regular do bem, evitando assim sua deterioração.
 b) Reparação: o conjunto de ações realizadas com o objetivo de consertar um bem, restabelecendo o seu desempenho original para que possa realizar sua função requerida.
 c) Instalação: a montagem de maquinários ou equipamentos.
 2) No âmbito do presente Capítulo, o termo “manutenção” refere-se à manutenção preventiva e o termo “reparação” refere-se à manutenção corretiva.
 3) Em relação aos instrumentos e equipamentos de precisão, os serviços de manutenção e reparação são classificados na subposição 1.2001.82; e os serviços de instalação na subposição 1.2003.24.
-Considerações Gerais
+[Considerações Gerais]
 O presente Capítulo abrange três posições:
 - Serviços de manutenção e reparação de produtos metálicos, maquinários e equipamentos (posição 1.2001).
 - Serviços de manutenção e reparação de outros bens de consumo (posição 1.2002).
@@ -14293,13 +14298,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 No âmbito deste Capítulo: 
 1) Editoração: alude ao serviço de gerenciamento da produção de publicações de caráter periódico ou não periódico, como livros, jornais, revistas, boletins, prospectos, álbuns e cadernos.
 2) Impressão: é o termo utilizado para designar a aplicação da tinta sobre o papel, segundo determinada forma de imagem ou texto.
 3) Serviços de reprodução de mídia gravada: são aqueles realizados a partir de gravação em mídias digitais, tais como CD-ROM, DVD, pen drive, disco externo ou armazenamento em nuvem, que são, direta ou indiretamente (via computador), conectados à impressora.
 4) Publicação: corresponde ao ato pelo qual um texto escrito é disponibilizado para várias pessoas, que a ele poderão ter livre acesso por vontade própria, ou seja, é o momento da publicização do ato.
-Considerações Gerais
+[Considerações Gerais]
 O presente Capítulo reúne, na posição 1.2101, os serviços de editoração, impressão, reprodução e publicação necessários à produção de publicações de caráter periódico ou não periódico, como livros, jornais, revistas, boletins, prospectos, álbuns e cadernos.
 </t>
   </si>
@@ -14363,7 +14368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 1) No âmbito deste Capítulo, entende-se por:
 a) Serviços educacionais: serviços afetos à educação, abrangendo os processos formativos que se desenvolvem na vida familiar, na convivência humana, no trabalho, nas instituições de ensino e pesquisa, nos movimentos sociais e organizações da sociedade civil e nas manifestações culturais.
 b) Educação escolar: aquela composta de educação básica e educação superior, incluindo-se em cada etapa a educação especial (destinada aos portadores de deficiência, transtornos globais do desenvolvimento e altas habilidades ou superdotação).
@@ -14373,7 +14378,7 @@
 f) Educação superior: aquela que abrange os cursos e programas de graduação (abertos a candidatos que tenham concluído o ensino médio ou equivalente e tenham sido classificados em processo seletivo); de pós-graduação, compreendendo programas de mestrado e doutorado; cursos de especialização, aperfeiçoamento e outros (abertos a candidatos diplomados em cursos de graduação e que atendam às exigências das instituições de ensino); e de extensão (abertos a candidatos que atendam aos requisitos estabelecidos em cada caso pelas instituições de ensino).
 2) A educação profissional e tecnológica integra-se aos diferentes níveis e modalidades de educação e abrangerá os seguintes cursos: (i) de formação inicial e continuada ou qualificação profissional; (ii) de educação profissional técnica de nível médio; e (iii) de educação profissional tecnológica de graduação e pós-graduação.
 3) Os serviços de educação, com enfoque cultural, incluem, por exemplo, ensino de música (tais como piano, violino e teoria musical), artes, dança e fotografia. 
-Considerações Gerais
+[Considerações Gerais]
 A educação abrange os processos formativos que se desenvolvem na vida familiar, na convivência humana, no trabalho, nas instituições de ensino e pesquisa, nos movimentos sociais e organizações da sociedade civil e nas manifestações culturais.
 </t>
   </si>
@@ -14552,7 +14557,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 1) Na posição1.2301, tem-se que: 
 a) Os “serviços de atenção à saúde humana” cobrem todas as formas de serviços relacionados à saúde humana prestados em hospitais, ambulatórios, consultórios, clínicas, centros de assistência psicossocial, unidades móveis de atendimento a urgências, remoções e, também, os serviços de saúde prestados nos domicílios. Compreendem também as práticas integrativas e complementares ao cuidado da saúde humana.
 b) “Serviços hospitalares” são aqueles prestados por estabelecimentos assistenciais de saúde que dispõem de estrutura material e de pessoal destinada a atender a internação de pacientes, garantir atendimento básico de diagnóstico e tratamento, com equipe clínica organizada e assistência permanente prestada por médicos, que possuam serviços de enfermagem e atendimento terapêutico direto ao paciente, com disponibilidade de serviços de laboratório e radiologia, serviços de cirurgia e/ou parto, bem como registros médicos organizados para a rápida observação e acompanhamento de casos.
@@ -14562,7 +14567,7 @@
 c) São objetivos da assistência social: (i) a proteção social, que visa à garantia da vida, à redução de danos e à prevenção da incidência de riscos, especialmente: a proteção à família, à maternidade, à infância, à adolescência e à velhice; o amparo às crianças e adolescentes carentes; a promoção da integração ao mercado de trabalho; a habilitação e reabilitação das pessoas portadoras de deficiência e a promoção de sua integração à vida comunitária; e a garantia de benefício mensal à pessoa portadora de deficiência e ao idoso que comprovem não possuir meios de prover a própria manutenção ou de tê-la provida por sua família; (ii) a vigilância socioassistencial, que visa a analisar territorialmente a capacidade protetiva das famílias e nela a ocorrência de vulnerabilidades, de ameaças, de vitimizações e de danos; (iii) a defesa de direitos, que visa a garantir o pleno acesso aos direitos no conjunto das provisões socioassistenciais.
 d) “Serviços de assistência social” são aqueles prestados de forma direta em unidades básicas e públicas de assistência social, bem como de forma indireta nas entidades e organizações não públicas de assistência social. São considerados serviços de assistência social ou serviços assistenciais os serviços continuados que visem à melhoria da vida da população e cujas ações estejam voltadas para as necessidades básicas de proteção social.
 e) A assistência social não abrange apenas idosos e deficientes. A proteção social é ampla, incluindo pessoas em qualquer idade, sejam saudáveis ou não, desde que se encontrem expostos a algum tipo de vulnerabilidade social.
-Considerações Gerais
+[Considerações Gerais]
 Ao longo do presente Capítulo, os serviços relacionados à saúde humana e de assistência social estão distribuídos em quatro distintas posições, isto é:
 - Serviços de saúde humana (posição 1.2301)
 - Serviços de cuidado e assistência em unidades de acolhimento (posição 1.2302).
@@ -14813,7 +14818,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas:
+    <t xml:space="preserve">[Notas]
 1) No presente Capítulo, considera-se que:
 a) Resíduo: é o material, substância, objeto ou bem descartado resultante de atividades humanas em sociedade, a cuja destinação final se procede, se propõe proceder ou se está obrigado a proceder. Os resíduos podem ser provenientes de serviços de saúde, ter origem industrial ou doméstica, e podem se caracterizar como perigosos, não perigosos, recicláveis ou não recicláveis.
 b) Periculosidade de um resíduo: é a característica apresentada por um resíduo que, em função de suas propriedades físicas, químicas ou infectocontagiosas, pode apresentar riscos (i) à saúde pública, provocando mortalidade, incidência de doenças ou acentuando seus índices, ou (ii) ao meio ambiente.
@@ -14829,7 +14834,7 @@
 a) A coleta, transbordo e transporte dos resíduos originários da varrição e limpeza de logradouros e vias públicas.
 b) A triagem para fins de reúso ou reciclagem, de tratamento, inclusive por compostagem, e de disposição final dos resíduos originários da varrição e limpeza de logradouros e vias públicas.
 c) A varrição, capina e poda de árvores em vias e logradouros públicos e outros eventuais serviços pertinentes à limpeza pública urbana.
-Considerações Gerais
+[Considerações Gerais]
 O presente Capítulo inclui os serviços de:
 - Tratamento de água (posição 1.2401).
 - Esgoto, tratamento de esgotos e limpeza de fossas sépticas (posição 1.2402).
@@ -15156,10 +15161,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas
+    <t xml:space="preserve">[Notas]
 1) O presente Capítulo não compreende os serviços e rendimentos decorrentes do licenciamento ou da cessão total ou parcial dos direitos patrimoniais da propriedade intelectual, que se classificam no Capítulo 11.
 2) Na posição 1.2501, considera-se obra audiovisual o produto da fixação ou transmissão de imagens, com ou sem som, que tenha a finalidade de criar a impressão de movimento, independentemente dos processos de captação, do suporte utilizado inicial ou posteriormente para fixá-las ou transmiti-las, ou dos meios utilizados para sua veiculação, reprodução, transmissão ou difusão.
-Considerações Gerais
+[Considerações Gerais]
 Reúnem-se no presente Capítulo os serviços recreativos, culturais e desportivos, subdivididos em:
 - Serviços de produção audiovisual, de apoio e relacionados (posição 1.2501).
 - Serviços de apresentação e promoção de atuações artísticas e outros serviços de entretenimento ao vivo (posição 1.2502).
@@ -15494,10 +15499,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Notas 
+    <t xml:space="preserve">[Notas]
 1) Na posição 1.2601, inclui-se na expressão “limpeza de têxteis”, dentre outros, lavagem e limpeza de roupas, móveis, estofados, painéis, tapetes (incluindo carpetes) e outros artigos de tapeçaria.
 2) Na posição 1.2602, o termo “bem-estar” inclui, por exemplo, saunas, banhos de vapor, spas, academias de ginástica e congêneres e massagens, exceto as terapêuticas, que se classificam no Capítulo 23.
-Considerações Gerais
+[Considerações Gerais]
 O presente Capítulo reúne as seguintes posições:
 - Serviços de lavanderia e tinturaria (1.2601).
 - Serviços de tratamento de beleza e bem-estar físico (1.2602).
@@ -15782,7 +15787,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -15868,7 +15873,7 @@
   </sheetPr>
   <dimension ref="A1:B1238"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -25801,15 +25806,15 @@
   </sheetPr>
   <dimension ref="A1:C1238"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A171" activeCellId="0" sqref="A171"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A219" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C222" activeCellId="0" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="83.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="150.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="196.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -25824,7 +25829,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="241.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -25864,7 +25869,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -26785,7 +26790,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="405" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="362.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
         <v>188</v>
       </c>
@@ -26851,7 +26856,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="15" t="s">
         <v>200</v>
       </c>
@@ -27126,7 +27131,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="673.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="15" t="s">
         <v>250</v>
       </c>
@@ -28114,7 +28119,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="1355.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="15" t="s">
         <v>442</v>
       </c>
@@ -29676,7 +29681,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="377.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="15" t="s">
         <v>762</v>
       </c>
@@ -31661,7 +31666,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="161.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="15" t="s">
         <v>1140</v>
       </c>
@@ -33267,7 +33272,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="721" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="444.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="15" t="s">
         <v>1440</v>
       </c>
@@ -34644,7 +34649,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="852" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="363.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="15" t="s">
         <v>1702</v>
       </c>
@@ -35552,7 +35557,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="936" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="565.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="15" t="s">
         <v>1870</v>
       </c>
@@ -37288,7 +37293,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="1100" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1100" customFormat="false" ht="417.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="15" t="s">
         <v>2198</v>
       </c>
@@ -37677,7 +37682,7 @@
         <v>3297</v>
       </c>
     </row>
-    <row r="1137" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1137" customFormat="false" ht="511.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1137" s="15" t="s">
         <v>2272</v>
       </c>
@@ -38591,7 +38596,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="1223" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1223" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="15" t="s">
         <v>2444</v>
       </c>

--- a/NBS-e-NEBS-em-excel.xlsx
+++ b/NBS-e-NEBS-em-excel.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5868" uniqueCount="3394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5868" uniqueCount="3395">
   <si>
     <t xml:space="preserve">NBS 2.0</t>
   </si>
@@ -7461,6 +7461,9 @@
   </si>
   <si>
     <t xml:space="preserve">SERVIÇOS DE CONSTRUÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços de Construção</t>
   </si>
   <si>
     <t xml:space="preserve">[Notas]
@@ -8077,7 +8080,6 @@
     1) Nesta seção:
         a) Navegação interior é o transporte aquaviário feito em áreas abrigadas ou parcialmente abrigadas de mau tempo, onde as tempestades que ocorrem em mar aberto não afetam ou afetam muito pouco, como em baías, enseadas, lagoas, rios, lagos, canais etc., em percurso nacional ou internacional.
         b) Navegação costeira é o transporte aquaviário feito em regiões em mar aberto onde ainda é possível avistar a costa, limitadas ao máximo de 20 (vinte) milhas náuticas da costa e, em princípio, não é necessária a utilização de instrumentos de orientação, pois navega-se observando a terra.
-(Fl. 10 do Anexo I da Portaria Conjunta RFB/SCS nº	, de	de dezembro de 2018.)
     c) Navegação transoceânica é o transporte aquaviário realizado entre portos nacionais e estrangeiros, fora dos limites de visibilidade da costa e sem outros limites estabelecidos. Requer a utilização de instrumentos de localização e orientação analógicos ou digitais.
     d) Transporte multimodal de cargas é aquele que utiliza duas ou mais modalidades de transporte, desde a origem até o destino, e é regido por um único contrato, sendo executado sob a responsabilidade de um único operador de transporte multimodal.
     e) Operador de transporte multimodal é pessoa jurídica contratada como principal responsável para a realização do transporte multimodal de cargas da origem até o destino, por meios próprios (do operador) ou por intermédio de terceiros, podendo ser ou não o transportador da carga.</t>
@@ -9574,6 +9576,7 @@
         <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[Notas]
 </t>
@@ -9583,6 +9586,7 @@
         <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -9592,6 +9596,7 @@
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -9601,6 +9606,7 @@
         <sz val="12"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">As operações de arrendamento mercantil financeiro classificam-se no Capítulo 9 e as operações de arrendamento mercantil operacional classificam-se no Capítulo 11.</t>
     </r>
@@ -15735,16 +15741,19 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -15991,7 +16000,7 @@
   </sheetPr>
   <dimension ref="A1:B1238"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -25924,8 +25933,8 @@
   </sheetPr>
   <dimension ref="A1:C1243"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1079" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1080" activeCellId="0" sqref="C1080"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C95" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C96" activeCellId="0" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25961,10 +25970,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2480</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25993,7 +26002,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26004,7 +26013,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26024,7 +26033,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26035,7 +26044,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26046,7 +26055,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26057,7 +26066,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26086,7 +26095,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26097,7 +26106,7 @@
         <v>29</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26108,7 +26117,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26119,7 +26128,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26139,7 +26148,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26150,7 +26159,7 @@
         <v>39</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26161,7 +26170,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26172,7 +26181,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26183,7 +26192,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26230,7 +26239,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26268,7 +26277,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26306,7 +26315,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26317,7 +26326,7 @@
         <v>73</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26346,7 +26355,7 @@
         <v>79</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26384,7 +26393,7 @@
         <v>87</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26395,7 +26404,7 @@
         <v>89</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26406,7 +26415,7 @@
         <v>91</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26417,7 +26426,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26428,7 +26437,7 @@
         <v>95</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26448,7 +26457,7 @@
         <v>99</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26459,7 +26468,7 @@
         <v>101</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26470,7 +26479,7 @@
         <v>103</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26490,7 +26499,7 @@
         <v>107</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26501,7 +26510,7 @@
         <v>109</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26512,7 +26521,7 @@
         <v>111</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26541,7 +26550,7 @@
         <v>117</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26552,7 +26561,7 @@
         <v>119</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26572,7 +26581,7 @@
         <v>123</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26583,7 +26592,7 @@
         <v>125</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26594,7 +26603,7 @@
         <v>127</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26605,7 +26614,7 @@
         <v>129</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26616,7 +26625,7 @@
         <v>131</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26627,7 +26636,7 @@
         <v>133</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26638,7 +26647,7 @@
         <v>135</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26649,7 +26658,7 @@
         <v>137</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26678,7 +26687,7 @@
         <v>143</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26689,7 +26698,7 @@
         <v>145</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26700,7 +26709,7 @@
         <v>147</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26711,7 +26720,7 @@
         <v>149</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26722,7 +26731,7 @@
         <v>151</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26742,7 +26751,7 @@
         <v>155</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26753,7 +26762,7 @@
         <v>157</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26773,7 +26782,7 @@
         <v>161</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26784,7 +26793,7 @@
         <v>163</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26795,7 +26804,7 @@
         <v>165</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26806,7 +26815,7 @@
         <v>167</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26817,7 +26826,7 @@
         <v>169</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26828,7 +26837,7 @@
         <v>171</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26848,7 +26857,7 @@
         <v>175</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26859,7 +26868,7 @@
         <v>177</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26870,7 +26879,7 @@
         <v>179</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26881,7 +26890,7 @@
         <v>181</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26892,7 +26901,7 @@
         <v>183</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26903,7 +26912,7 @@
         <v>185</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26914,18 +26923,18 @@
         <v>187</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>2541</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="310.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="256.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="18" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26936,7 +26945,7 @@
         <v>189</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26947,7 +26956,7 @@
         <v>191</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26958,7 +26967,7 @@
         <v>193</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26969,7 +26978,7 @@
         <v>195</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26980,7 +26989,7 @@
         <v>197</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26991,7 +27000,7 @@
         <v>199</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27002,7 +27011,7 @@
         <v>201</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27013,7 +27022,7 @@
         <v>203</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27024,7 +27033,7 @@
         <v>205</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27035,7 +27044,7 @@
         <v>207</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27046,7 +27055,7 @@
         <v>209</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27057,7 +27066,7 @@
         <v>211</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27068,7 +27077,7 @@
         <v>213</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27079,7 +27088,7 @@
         <v>215</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27090,7 +27099,7 @@
         <v>217</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27101,7 +27110,7 @@
         <v>219</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27112,7 +27121,7 @@
         <v>221</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27123,7 +27132,7 @@
         <v>223</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27134,7 +27143,7 @@
         <v>225</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27145,7 +27154,7 @@
         <v>227</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27156,7 +27165,7 @@
         <v>229</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27167,7 +27176,7 @@
         <v>231</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27178,7 +27187,7 @@
         <v>233</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27189,7 +27198,7 @@
         <v>235</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27200,7 +27209,7 @@
         <v>237</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27211,7 +27220,7 @@
         <v>239</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27222,7 +27231,7 @@
         <v>241</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27233,7 +27242,7 @@
         <v>243</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27244,7 +27253,7 @@
         <v>245</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27255,7 +27264,7 @@
         <v>247</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27266,7 +27275,7 @@
         <v>249</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="673.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27277,7 +27286,7 @@
         <v>251</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27288,7 +27297,7 @@
         <v>253</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27299,7 +27308,7 @@
         <v>255</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27310,7 +27319,7 @@
         <v>257</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27321,7 +27330,7 @@
         <v>259</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27359,7 +27368,7 @@
         <v>267</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27397,7 +27406,7 @@
         <v>275</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27408,7 +27417,7 @@
         <v>277</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27419,7 +27428,7 @@
         <v>279</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27430,7 +27439,7 @@
         <v>281</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27450,7 +27459,7 @@
         <v>285</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27488,7 +27497,7 @@
         <v>293</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27526,7 +27535,7 @@
         <v>301</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27546,7 +27555,7 @@
         <v>305</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27584,7 +27593,7 @@
         <v>313</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27595,7 +27604,7 @@
         <v>315</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27606,7 +27615,7 @@
         <v>317</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27617,7 +27626,7 @@
         <v>319</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27628,7 +27637,7 @@
         <v>321</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27639,7 +27648,7 @@
         <v>323</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27650,7 +27659,7 @@
         <v>325</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27661,7 +27670,7 @@
         <v>327</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27672,7 +27681,7 @@
         <v>329</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27683,7 +27692,7 @@
         <v>331</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27694,7 +27703,7 @@
         <v>333</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27705,7 +27714,7 @@
         <v>335</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27716,12 +27725,12 @@
         <v>337</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="16" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>339</v>
@@ -27730,7 +27739,7 @@
     </row>
     <row r="173" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="16" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>341</v>
@@ -27745,7 +27754,7 @@
         <v>343</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27756,7 +27765,7 @@
         <v>345</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27785,7 +27794,7 @@
         <v>351</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27796,7 +27805,7 @@
         <v>353</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27816,7 +27825,7 @@
         <v>357</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27854,7 +27863,7 @@
         <v>365</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27865,7 +27874,7 @@
         <v>367</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27876,7 +27885,7 @@
         <v>369</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27887,7 +27896,7 @@
         <v>371</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27898,7 +27907,7 @@
         <v>373</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27909,7 +27918,7 @@
         <v>375</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27920,7 +27929,7 @@
         <v>377</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27931,7 +27940,7 @@
         <v>379</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27942,7 +27951,7 @@
         <v>381</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27953,7 +27962,7 @@
         <v>383</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27964,7 +27973,7 @@
         <v>385</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27975,7 +27984,7 @@
         <v>387</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28004,7 +28013,7 @@
         <v>393</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28015,7 +28024,7 @@
         <v>395</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28044,7 +28053,7 @@
         <v>401</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28064,7 +28073,7 @@
         <v>405</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28102,7 +28111,7 @@
         <v>413</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28113,7 +28122,7 @@
         <v>415</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28124,7 +28133,7 @@
         <v>417</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28135,7 +28144,7 @@
         <v>419</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28155,7 +28164,7 @@
         <v>423</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28166,7 +28175,7 @@
         <v>425</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28177,7 +28186,7 @@
         <v>427</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28188,7 +28197,7 @@
         <v>429</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28199,7 +28208,7 @@
         <v>431</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28210,7 +28219,7 @@
         <v>433</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28221,7 +28230,7 @@
         <v>435</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28232,7 +28241,7 @@
         <v>437</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28243,7 +28252,7 @@
         <v>439</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28254,7 +28263,7 @@
         <v>441</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="1355.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28265,7 +28274,7 @@
         <v>443</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28276,7 +28285,7 @@
         <v>445</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28296,7 +28305,7 @@
         <v>449</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28334,7 +28343,7 @@
         <v>457</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28372,7 +28381,7 @@
         <v>465</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28401,7 +28410,7 @@
         <v>471</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28484,7 +28493,7 @@
         <v>489</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28495,7 +28504,7 @@
         <v>491</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28515,7 +28524,7 @@
         <v>495</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28553,7 +28562,7 @@
         <v>503</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28591,7 +28600,7 @@
         <v>511</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28620,7 +28629,7 @@
         <v>517</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28676,7 +28685,7 @@
         <v>529</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28687,7 +28696,7 @@
         <v>531</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28698,7 +28707,7 @@
         <v>533</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28709,7 +28718,7 @@
         <v>535</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28720,7 +28729,7 @@
         <v>537</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28731,7 +28740,7 @@
         <v>539</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28742,7 +28751,7 @@
         <v>541</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28753,7 +28762,7 @@
         <v>543</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28764,7 +28773,7 @@
         <v>545</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28802,7 +28811,7 @@
         <v>553</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28840,7 +28849,7 @@
         <v>561</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28869,7 +28878,7 @@
         <v>567</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28961,7 +28970,7 @@
         <v>587</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28972,7 +28981,7 @@
         <v>589</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28983,7 +28992,7 @@
         <v>591</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29021,7 +29030,7 @@
         <v>599</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29059,7 +29068,7 @@
         <v>607</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29088,7 +29097,7 @@
         <v>613</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29171,7 +29180,7 @@
         <v>631</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29182,7 +29191,7 @@
         <v>633</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29193,7 +29202,7 @@
         <v>635</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29231,7 +29240,7 @@
         <v>643</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29269,7 +29278,7 @@
         <v>651</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29298,7 +29307,7 @@
         <v>657</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29381,7 +29390,7 @@
         <v>675</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29392,7 +29401,7 @@
         <v>677</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29430,7 +29439,7 @@
         <v>685</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29441,7 +29450,7 @@
         <v>687</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29452,7 +29461,7 @@
         <v>689</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29463,7 +29472,7 @@
         <v>691</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29474,7 +29483,7 @@
         <v>693</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29485,7 +29494,7 @@
         <v>695</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29496,7 +29505,7 @@
         <v>697</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29507,7 +29516,7 @@
         <v>699</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29518,7 +29527,7 @@
         <v>701</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29529,7 +29538,7 @@
         <v>703</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29540,7 +29549,7 @@
         <v>705</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29551,7 +29560,7 @@
         <v>707</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29562,7 +29571,7 @@
         <v>709</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29600,7 +29609,7 @@
         <v>717</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29638,7 +29647,7 @@
         <v>725</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29667,7 +29676,7 @@
         <v>731</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29750,7 +29759,7 @@
         <v>749</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29761,7 +29770,7 @@
         <v>751</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29772,7 +29781,7 @@
         <v>753</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29783,7 +29792,7 @@
         <v>755</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29794,7 +29803,7 @@
         <v>757</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29805,7 +29814,7 @@
         <v>759</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29816,7 +29825,7 @@
         <v>761</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="377.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29827,7 +29836,7 @@
         <v>763</v>
       </c>
       <c r="C384" s="21" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29838,7 +29847,7 @@
         <v>765</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29849,7 +29858,7 @@
         <v>767</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29860,7 +29869,7 @@
         <v>769</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29871,7 +29880,7 @@
         <v>771</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29882,7 +29891,7 @@
         <v>773</v>
       </c>
       <c r="C389" s="16" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29893,7 +29902,7 @@
         <v>775</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29940,7 +29949,7 @@
         <v>785</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29978,7 +29987,7 @@
         <v>793</v>
       </c>
       <c r="C399" s="16" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29989,7 +29998,7 @@
         <v>795</v>
       </c>
       <c r="C400" s="16" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30009,7 +30018,7 @@
         <v>799</v>
       </c>
       <c r="C402" s="16" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30020,7 +30029,7 @@
         <v>801</v>
       </c>
       <c r="C403" s="16" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30049,7 +30058,7 @@
         <v>807</v>
       </c>
       <c r="C406" s="16" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30060,7 +30069,7 @@
         <v>809</v>
       </c>
       <c r="C407" s="16" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30071,7 +30080,7 @@
         <v>811</v>
       </c>
       <c r="C408" s="16" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30091,7 +30100,7 @@
         <v>815</v>
       </c>
       <c r="C410" s="16" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30102,7 +30111,7 @@
         <v>817</v>
       </c>
       <c r="C411" s="16" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30113,7 +30122,7 @@
         <v>819</v>
       </c>
       <c r="C412" s="16" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30124,7 +30133,7 @@
         <v>821</v>
       </c>
       <c r="C413" s="16" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30135,7 +30144,7 @@
         <v>823</v>
       </c>
       <c r="C414" s="16" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30164,7 +30173,7 @@
         <v>829</v>
       </c>
       <c r="C417" s="16" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30175,7 +30184,7 @@
         <v>831</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30186,7 +30195,7 @@
         <v>833</v>
       </c>
       <c r="C419" s="16" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30197,7 +30206,7 @@
         <v>835</v>
       </c>
       <c r="C420" s="16" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30208,7 +30217,7 @@
         <v>837</v>
       </c>
       <c r="C421" s="16" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30228,7 +30237,7 @@
         <v>841</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30239,7 +30248,7 @@
         <v>843</v>
       </c>
       <c r="C424" s="16" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30250,7 +30259,7 @@
         <v>845</v>
       </c>
       <c r="C425" s="16" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30261,7 +30270,7 @@
         <v>847</v>
       </c>
       <c r="C426" s="16" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30272,7 +30281,7 @@
         <v>849</v>
       </c>
       <c r="C427" s="16" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30283,7 +30292,7 @@
         <v>851</v>
       </c>
       <c r="C428" s="16" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="375" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30294,7 +30303,7 @@
         <v>853</v>
       </c>
       <c r="C429" s="16" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30305,7 +30314,7 @@
         <v>855</v>
       </c>
       <c r="C430" s="16" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30316,7 +30325,7 @@
         <v>857</v>
       </c>
       <c r="C431" s="16" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30327,7 +30336,7 @@
         <v>859</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30338,7 +30347,7 @@
         <v>861</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30358,7 +30367,7 @@
         <v>865</v>
       </c>
       <c r="C435" s="16" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30369,7 +30378,7 @@
         <v>867</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30389,7 +30398,7 @@
         <v>871</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30400,7 +30409,7 @@
         <v>873</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30411,7 +30420,7 @@
         <v>875</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30422,18 +30431,18 @@
         <v>877</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="95.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="16" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="C442" s="22" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30444,7 +30453,7 @@
         <v>879</v>
       </c>
       <c r="C443" s="16" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30464,7 +30473,7 @@
         <v>883</v>
       </c>
       <c r="C445" s="16" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30475,7 +30484,7 @@
         <v>885</v>
       </c>
       <c r="C446" s="16" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30486,7 +30495,7 @@
         <v>887</v>
       </c>
       <c r="C447" s="16" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30497,7 +30506,7 @@
         <v>889</v>
       </c>
       <c r="C448" s="16" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30508,7 +30517,7 @@
         <v>891</v>
       </c>
       <c r="C449" s="16" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30519,7 +30528,7 @@
         <v>893</v>
       </c>
       <c r="C450" s="16" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30530,7 +30539,7 @@
         <v>895</v>
       </c>
       <c r="C451" s="16" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30541,7 +30550,7 @@
         <v>897</v>
       </c>
       <c r="C452" s="16" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30552,7 +30561,7 @@
         <v>899</v>
       </c>
       <c r="C453" s="16" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30563,7 +30572,7 @@
         <v>901</v>
       </c>
       <c r="C454" s="16" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30574,7 +30583,7 @@
         <v>903</v>
       </c>
       <c r="C455" s="16" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30585,7 +30594,7 @@
         <v>905</v>
       </c>
       <c r="C456" s="16" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30596,7 +30605,7 @@
         <v>907</v>
       </c>
       <c r="C457" s="16" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30607,7 +30616,7 @@
         <v>909</v>
       </c>
       <c r="C458" s="16" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30618,7 +30627,7 @@
         <v>911</v>
       </c>
       <c r="C459" s="16" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30629,7 +30638,7 @@
         <v>913</v>
       </c>
       <c r="C460" s="16" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30775,7 +30784,7 @@
         <v>945</v>
       </c>
       <c r="C476" s="16" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30840,7 +30849,7 @@
         <v>959</v>
       </c>
       <c r="C483" s="16" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30851,7 +30860,7 @@
         <v>961</v>
       </c>
       <c r="C484" s="16" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30862,7 +30871,7 @@
         <v>963</v>
       </c>
       <c r="C485" s="16" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30873,7 +30882,7 @@
         <v>965</v>
       </c>
       <c r="C486" s="16" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30884,7 +30893,7 @@
         <v>967</v>
       </c>
       <c r="C487" s="16" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30895,7 +30904,7 @@
         <v>969</v>
       </c>
       <c r="C488" s="16" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30906,7 +30915,7 @@
         <v>971</v>
       </c>
       <c r="C489" s="16" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30917,7 +30926,7 @@
         <v>973</v>
       </c>
       <c r="C490" s="16" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30928,7 +30937,7 @@
         <v>975</v>
       </c>
       <c r="C491" s="16" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30939,7 +30948,7 @@
         <v>977</v>
       </c>
       <c r="C492" s="16" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="330" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30950,7 +30959,7 @@
         <v>979</v>
       </c>
       <c r="C493" s="16" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30961,7 +30970,7 @@
         <v>981</v>
       </c>
       <c r="C494" s="16" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30981,7 +30990,7 @@
         <v>985</v>
       </c>
       <c r="C496" s="16" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30992,7 +31001,7 @@
         <v>987</v>
       </c>
       <c r="C497" s="16" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31003,7 +31012,7 @@
         <v>989</v>
       </c>
       <c r="C498" s="16" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31014,7 +31023,7 @@
         <v>991</v>
       </c>
       <c r="C499" s="16" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="315" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31025,7 +31034,7 @@
         <v>993</v>
       </c>
       <c r="C500" s="16" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31036,7 +31045,7 @@
         <v>995</v>
       </c>
       <c r="C501" s="16" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31047,7 +31056,7 @@
         <v>997</v>
       </c>
       <c r="C502" s="16" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31058,7 +31067,7 @@
         <v>999</v>
       </c>
       <c r="C503" s="16" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31069,7 +31078,7 @@
         <v>1001</v>
       </c>
       <c r="C504" s="16" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31080,7 +31089,7 @@
         <v>1003</v>
       </c>
       <c r="C505" s="16" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31091,7 +31100,7 @@
         <v>1005</v>
       </c>
       <c r="C506" s="16" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="315" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31102,7 +31111,7 @@
         <v>1007</v>
       </c>
       <c r="C507" s="16" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31113,7 +31122,7 @@
         <v>1009</v>
       </c>
       <c r="C508" s="16" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31124,7 +31133,7 @@
         <v>1011</v>
       </c>
       <c r="C509" s="16" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31135,7 +31144,7 @@
         <v>1013</v>
       </c>
       <c r="C510" s="16" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31146,7 +31155,7 @@
         <v>1015</v>
       </c>
       <c r="C511" s="16" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31157,7 +31166,7 @@
         <v>1017</v>
       </c>
       <c r="C512" s="16" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31168,7 +31177,7 @@
         <v>1019</v>
       </c>
       <c r="C513" s="16" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31179,7 +31188,7 @@
         <v>1021</v>
       </c>
       <c r="C514" s="16" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31190,7 +31199,7 @@
         <v>1023</v>
       </c>
       <c r="C515" s="16" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31201,7 +31210,7 @@
         <v>1025</v>
       </c>
       <c r="C516" s="16" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31212,7 +31221,7 @@
         <v>1027</v>
       </c>
       <c r="C517" s="16" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31223,7 +31232,7 @@
         <v>1029</v>
       </c>
       <c r="C518" s="16" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31234,7 +31243,7 @@
         <v>1031</v>
       </c>
       <c r="C519" s="16" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31245,7 +31254,7 @@
         <v>1033</v>
       </c>
       <c r="C520" s="16" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31256,7 +31265,7 @@
         <v>1035</v>
       </c>
       <c r="C521" s="16" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31267,7 +31276,7 @@
         <v>1037</v>
       </c>
       <c r="C522" s="16" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31287,7 +31296,7 @@
         <v>1041</v>
       </c>
       <c r="C524" s="16" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31298,7 +31307,7 @@
         <v>1043</v>
       </c>
       <c r="C525" s="16" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31309,7 +31318,7 @@
         <v>1045</v>
       </c>
       <c r="C526" s="16" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31320,7 +31329,7 @@
         <v>1047</v>
       </c>
       <c r="C527" s="16" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31340,7 +31349,7 @@
         <v>1051</v>
       </c>
       <c r="C529" s="16" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="315" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31351,7 +31360,7 @@
         <v>1053</v>
       </c>
       <c r="C530" s="16" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="345" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31362,7 +31371,7 @@
         <v>1055</v>
       </c>
       <c r="C531" s="16" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="330" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31373,7 +31382,7 @@
         <v>1057</v>
       </c>
       <c r="C532" s="16" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31384,7 +31393,7 @@
         <v>1059</v>
       </c>
       <c r="C533" s="16" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31395,7 +31404,7 @@
         <v>1061</v>
       </c>
       <c r="C534" s="16" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31406,7 +31415,7 @@
         <v>1063</v>
       </c>
       <c r="C535" s="16" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31417,7 +31426,7 @@
         <v>1065</v>
       </c>
       <c r="C536" s="16" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="300" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31428,7 +31437,7 @@
         <v>1067</v>
       </c>
       <c r="C537" s="16" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31439,7 +31448,7 @@
         <v>1069</v>
       </c>
       <c r="C538" s="16" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31468,7 +31477,7 @@
         <v>1075</v>
       </c>
       <c r="C541" s="16" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31479,7 +31488,7 @@
         <v>1077</v>
       </c>
       <c r="C542" s="16" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31490,7 +31499,7 @@
         <v>1079</v>
       </c>
       <c r="C543" s="16" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31501,7 +31510,7 @@
         <v>1081</v>
       </c>
       <c r="C544" s="16" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31512,7 +31521,7 @@
         <v>1083</v>
       </c>
       <c r="C545" s="16" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31523,7 +31532,7 @@
         <v>1085</v>
       </c>
       <c r="C546" s="16" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31534,7 +31543,7 @@
         <v>1087</v>
       </c>
       <c r="C547" s="16" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31545,7 +31554,7 @@
         <v>1089</v>
       </c>
       <c r="C548" s="16" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31556,7 +31565,7 @@
         <v>1091</v>
       </c>
       <c r="C549" s="16" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31567,7 +31576,7 @@
         <v>1093</v>
       </c>
       <c r="C550" s="16" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31578,7 +31587,7 @@
         <v>1095</v>
       </c>
       <c r="C551" s="16" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31598,7 +31607,7 @@
         <v>1099</v>
       </c>
       <c r="C553" s="16" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31609,7 +31618,7 @@
         <v>1101</v>
       </c>
       <c r="C554" s="16" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31620,7 +31629,7 @@
         <v>1103</v>
       </c>
       <c r="C555" s="16" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31631,7 +31640,7 @@
         <v>1105</v>
       </c>
       <c r="C556" s="16" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31642,7 +31651,7 @@
         <v>1107</v>
       </c>
       <c r="C557" s="16" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31662,7 +31671,7 @@
         <v>1111</v>
       </c>
       <c r="C559" s="16" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31673,7 +31682,7 @@
         <v>1113</v>
       </c>
       <c r="C560" s="16" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31684,7 +31693,7 @@
         <v>1115</v>
       </c>
       <c r="C561" s="16" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31713,7 +31722,7 @@
         <v>1121</v>
       </c>
       <c r="C564" s="16" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31724,7 +31733,7 @@
         <v>1123</v>
       </c>
       <c r="C565" s="16" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31735,7 +31744,7 @@
         <v>1125</v>
       </c>
       <c r="C566" s="16" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31746,7 +31755,7 @@
         <v>1127</v>
       </c>
       <c r="C567" s="16" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31757,7 +31766,7 @@
         <v>1129</v>
       </c>
       <c r="C568" s="16" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31768,7 +31777,7 @@
         <v>1131</v>
       </c>
       <c r="C569" s="16" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31779,7 +31788,7 @@
         <v>1133</v>
       </c>
       <c r="C570" s="16" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31790,7 +31799,7 @@
         <v>1135</v>
       </c>
       <c r="C571" s="16" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31801,7 +31810,7 @@
         <v>1137</v>
       </c>
       <c r="C572" s="16" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31812,7 +31821,7 @@
         <v>1139</v>
       </c>
       <c r="C573" s="16" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="161.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31823,7 +31832,7 @@
         <v>1141</v>
       </c>
       <c r="C574" s="16" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31834,7 +31843,7 @@
         <v>1143</v>
       </c>
       <c r="C575" s="16" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31845,7 +31854,7 @@
         <v>1145</v>
       </c>
       <c r="C576" s="16" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31856,7 +31865,7 @@
         <v>1147</v>
       </c>
       <c r="C577" s="16" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31867,7 +31876,7 @@
         <v>1149</v>
       </c>
       <c r="C578" s="16" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31878,7 +31887,7 @@
         <v>1151</v>
       </c>
       <c r="C579" s="16" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31889,7 +31898,7 @@
         <v>1153</v>
       </c>
       <c r="C580" s="16" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31900,7 +31909,7 @@
         <v>1155</v>
       </c>
       <c r="C581" s="16" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31911,7 +31920,7 @@
         <v>1157</v>
       </c>
       <c r="C582" s="16" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31922,7 +31931,7 @@
         <v>1159</v>
       </c>
       <c r="C583" s="16" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31933,7 +31942,7 @@
         <v>1161</v>
       </c>
       <c r="C584" s="16" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31944,7 +31953,7 @@
         <v>1163</v>
       </c>
       <c r="C585" s="16" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31955,7 +31964,7 @@
         <v>1165</v>
       </c>
       <c r="C586" s="16" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31966,7 +31975,7 @@
         <v>1167</v>
       </c>
       <c r="C587" s="16" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31977,7 +31986,7 @@
         <v>1169</v>
       </c>
       <c r="C588" s="16" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31988,7 +31997,7 @@
         <v>1171</v>
       </c>
       <c r="C589" s="16" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32008,7 +32017,7 @@
         <v>1175</v>
       </c>
       <c r="C591" s="16" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32019,7 +32028,7 @@
         <v>1177</v>
       </c>
       <c r="C592" s="16" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32030,7 +32039,7 @@
         <v>1179</v>
       </c>
       <c r="C593" s="16" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32041,7 +32050,7 @@
         <v>1181</v>
       </c>
       <c r="C594" s="16" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32052,7 +32061,7 @@
         <v>1183</v>
       </c>
       <c r="C595" s="16" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32063,7 +32072,7 @@
         <v>1185</v>
       </c>
       <c r="C596" s="16" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32074,7 +32083,7 @@
         <v>1187</v>
       </c>
       <c r="C597" s="16" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32085,7 +32094,7 @@
         <v>1189</v>
       </c>
       <c r="C598" s="16" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32096,7 +32105,7 @@
         <v>1191</v>
       </c>
       <c r="C599" s="16" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32107,7 +32116,7 @@
         <v>1193</v>
       </c>
       <c r="C600" s="16" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32118,7 +32127,7 @@
         <v>1195</v>
       </c>
       <c r="C601" s="16" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32129,7 +32138,7 @@
         <v>1197</v>
       </c>
       <c r="C602" s="16" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32140,7 +32149,7 @@
         <v>1199</v>
       </c>
       <c r="C603" s="16" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32160,7 +32169,7 @@
         <v>1203</v>
       </c>
       <c r="C605" s="16" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32171,7 +32180,7 @@
         <v>1205</v>
       </c>
       <c r="C606" s="16" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32182,7 +32191,7 @@
         <v>1207</v>
       </c>
       <c r="C607" s="16" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32193,7 +32202,7 @@
         <v>1209</v>
       </c>
       <c r="C608" s="16" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32204,7 +32213,7 @@
         <v>1211</v>
       </c>
       <c r="C609" s="16" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32215,7 +32224,7 @@
         <v>1213</v>
       </c>
       <c r="C610" s="16" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32226,7 +32235,7 @@
         <v>1215</v>
       </c>
       <c r="C611" s="16" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32264,7 +32273,7 @@
         <v>1223</v>
       </c>
       <c r="C615" s="16" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32284,7 +32293,7 @@
         <v>1227</v>
       </c>
       <c r="C617" s="16" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32295,7 +32304,7 @@
         <v>1229</v>
       </c>
       <c r="C618" s="16" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32306,7 +32315,7 @@
         <v>1231</v>
       </c>
       <c r="C619" s="16" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32317,7 +32326,7 @@
         <v>1233</v>
       </c>
       <c r="C620" s="16" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32328,7 +32337,7 @@
         <v>1235</v>
       </c>
       <c r="C621" s="16" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32348,7 +32357,7 @@
         <v>1239</v>
       </c>
       <c r="C623" s="16" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32359,7 +32368,7 @@
         <v>1241</v>
       </c>
       <c r="C624" s="16" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32370,7 +32379,7 @@
         <v>1243</v>
       </c>
       <c r="C625" s="16" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32381,7 +32390,7 @@
         <v>1245</v>
       </c>
       <c r="C626" s="16" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32392,7 +32401,7 @@
         <v>1247</v>
       </c>
       <c r="C627" s="16" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32403,7 +32412,7 @@
         <v>1249</v>
       </c>
       <c r="C628" s="16" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32414,7 +32423,7 @@
         <v>1251</v>
       </c>
       <c r="C629" s="16" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32425,7 +32434,7 @@
         <v>1253</v>
       </c>
       <c r="C630" s="16" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32436,7 +32445,7 @@
         <v>1255</v>
       </c>
       <c r="C631" s="16" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32447,7 +32456,7 @@
         <v>1257</v>
       </c>
       <c r="C632" s="16" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32458,7 +32467,7 @@
         <v>1259</v>
       </c>
       <c r="C633" s="16" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32478,7 +32487,7 @@
         <v>1263</v>
       </c>
       <c r="C635" s="16" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32489,7 +32498,7 @@
         <v>1265</v>
       </c>
       <c r="C636" s="16" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32500,7 +32509,7 @@
         <v>1267</v>
       </c>
       <c r="C637" s="16" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32511,7 +32520,7 @@
         <v>1269</v>
       </c>
       <c r="C638" s="16" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32522,7 +32531,7 @@
         <v>1271</v>
       </c>
       <c r="C639" s="16" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32533,7 +32542,7 @@
         <v>1273</v>
       </c>
       <c r="C640" s="16" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32544,7 +32553,7 @@
         <v>1275</v>
       </c>
       <c r="C641" s="16" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32555,7 +32564,7 @@
         <v>1277</v>
       </c>
       <c r="C642" s="16" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32575,7 +32584,7 @@
         <v>1281</v>
       </c>
       <c r="C644" s="16" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32586,7 +32595,7 @@
         <v>1283</v>
       </c>
       <c r="C645" s="16" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32597,7 +32606,7 @@
         <v>1285</v>
       </c>
       <c r="C646" s="16" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32608,7 +32617,7 @@
         <v>1287</v>
       </c>
       <c r="C647" s="16" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32619,7 +32628,7 @@
         <v>1289</v>
       </c>
       <c r="C648" s="16" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32630,7 +32639,7 @@
         <v>1291</v>
       </c>
       <c r="C649" s="16" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32668,7 +32677,7 @@
         <v>1299</v>
       </c>
       <c r="C653" s="16" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32679,7 +32688,7 @@
         <v>1301</v>
       </c>
       <c r="C654" s="16" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32690,7 +32699,7 @@
         <v>1303</v>
       </c>
       <c r="C655" s="16" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32701,7 +32710,7 @@
         <v>1305</v>
       </c>
       <c r="C656" s="16" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32712,7 +32721,7 @@
         <v>1307</v>
       </c>
       <c r="C657" s="16" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32723,7 +32732,7 @@
         <v>1309</v>
       </c>
       <c r="C658" s="16" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32734,7 +32743,7 @@
         <v>1311</v>
       </c>
       <c r="C659" s="16" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32745,7 +32754,7 @@
         <v>1313</v>
       </c>
       <c r="C660" s="16" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32756,7 +32765,7 @@
         <v>1315</v>
       </c>
       <c r="C661" s="16" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32767,7 +32776,7 @@
         <v>1317</v>
       </c>
       <c r="C662" s="16" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32778,7 +32787,7 @@
         <v>1319</v>
       </c>
       <c r="C663" s="16" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32789,7 +32798,7 @@
         <v>1321</v>
       </c>
       <c r="C664" s="16" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32800,7 +32809,7 @@
         <v>1323</v>
       </c>
       <c r="C665" s="16" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32811,7 +32820,7 @@
         <v>1325</v>
       </c>
       <c r="C666" s="16" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32822,7 +32831,7 @@
         <v>1327</v>
       </c>
       <c r="C667" s="16" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32833,7 +32842,7 @@
         <v>1329</v>
       </c>
       <c r="C668" s="16" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32844,7 +32853,7 @@
         <v>1331</v>
       </c>
       <c r="C669" s="16" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32855,7 +32864,7 @@
         <v>1333</v>
       </c>
       <c r="C670" s="16" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32875,7 +32884,7 @@
         <v>1337</v>
       </c>
       <c r="C672" s="16" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32886,7 +32895,7 @@
         <v>1339</v>
       </c>
       <c r="C673" s="16" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32897,7 +32906,7 @@
         <v>1341</v>
       </c>
       <c r="C674" s="16" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32908,7 +32917,7 @@
         <v>1343</v>
       </c>
       <c r="C675" s="16" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32928,7 +32937,7 @@
         <v>1347</v>
       </c>
       <c r="C677" s="16" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32939,7 +32948,7 @@
         <v>1349</v>
       </c>
       <c r="C678" s="16" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32950,7 +32959,7 @@
         <v>1351</v>
       </c>
       <c r="C679" s="16" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32961,7 +32970,7 @@
         <v>1353</v>
       </c>
       <c r="C680" s="16" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="360" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32972,15 +32981,15 @@
         <v>1355</v>
       </c>
       <c r="C681" s="16" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="16" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="B682" s="16" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="C682" s="16"/>
     </row>
@@ -32992,7 +33001,7 @@
         <v>1357</v>
       </c>
       <c r="C683" s="16" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33021,7 +33030,7 @@
         <v>1363</v>
       </c>
       <c r="C686" s="16" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33032,7 +33041,7 @@
         <v>1365</v>
       </c>
       <c r="C687" s="16" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33043,7 +33052,7 @@
         <v>1367</v>
       </c>
       <c r="C688" s="16" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33054,7 +33063,7 @@
         <v>1369</v>
       </c>
       <c r="C689" s="16" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33065,7 +33074,7 @@
         <v>1371</v>
       </c>
       <c r="C690" s="16" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="300" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33076,7 +33085,7 @@
         <v>1373</v>
       </c>
       <c r="C691" s="16" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33087,7 +33096,7 @@
         <v>1375</v>
       </c>
       <c r="C692" s="16" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33098,7 +33107,7 @@
         <v>1377</v>
       </c>
       <c r="C693" s="16" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33109,7 +33118,7 @@
         <v>1379</v>
       </c>
       <c r="C694" s="16" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33120,7 +33129,7 @@
         <v>1381</v>
       </c>
       <c r="C695" s="16" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33131,7 +33140,7 @@
         <v>1383</v>
       </c>
       <c r="C696" s="16" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33142,7 +33151,7 @@
         <v>1385</v>
       </c>
       <c r="C697" s="16" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33153,7 +33162,7 @@
         <v>1387</v>
       </c>
       <c r="C698" s="16" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33173,7 +33182,7 @@
         <v>1391</v>
       </c>
       <c r="C700" s="16" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33184,7 +33193,7 @@
         <v>1393</v>
       </c>
       <c r="C701" s="16" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33195,7 +33204,7 @@
         <v>1395</v>
       </c>
       <c r="C702" s="16" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33206,7 +33215,7 @@
         <v>1397</v>
       </c>
       <c r="C703" s="16" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33217,7 +33226,7 @@
         <v>1399</v>
       </c>
       <c r="C704" s="16" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33228,7 +33237,7 @@
         <v>1401</v>
       </c>
       <c r="C705" s="16" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33239,7 +33248,7 @@
         <v>1403</v>
       </c>
       <c r="C706" s="16" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33259,7 +33268,7 @@
         <v>1407</v>
       </c>
       <c r="C708" s="16" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33270,7 +33279,7 @@
         <v>1409</v>
       </c>
       <c r="C709" s="16" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="300" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33281,7 +33290,7 @@
         <v>1411</v>
       </c>
       <c r="C710" s="16" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="330" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33292,7 +33301,7 @@
         <v>1413</v>
       </c>
       <c r="C711" s="16" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33303,7 +33312,7 @@
         <v>1415</v>
       </c>
       <c r="C712" s="16" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33332,7 +33341,7 @@
         <v>1421</v>
       </c>
       <c r="C715" s="16" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33343,7 +33352,7 @@
         <v>1423</v>
       </c>
       <c r="C716" s="16" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33363,7 +33372,7 @@
         <v>1427</v>
       </c>
       <c r="C718" s="16" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33374,7 +33383,7 @@
         <v>1429</v>
       </c>
       <c r="C719" s="16" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33385,7 +33394,7 @@
         <v>1431</v>
       </c>
       <c r="C720" s="16" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33405,7 +33414,7 @@
         <v>1435</v>
       </c>
       <c r="C722" s="16" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33416,7 +33425,7 @@
         <v>1437</v>
       </c>
       <c r="C723" s="16" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33427,7 +33436,7 @@
         <v>1439</v>
       </c>
       <c r="C724" s="16" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="444.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33438,7 +33447,7 @@
         <v>1441</v>
       </c>
       <c r="C725" s="16" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33467,7 +33476,7 @@
         <v>1447</v>
       </c>
       <c r="C728" s="16" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33478,7 +33487,7 @@
         <v>1449</v>
       </c>
       <c r="C729" s="16" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33489,7 +33498,7 @@
         <v>1451</v>
       </c>
       <c r="C730" s="16" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33500,7 +33509,7 @@
         <v>1453</v>
       </c>
       <c r="C731" s="16" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33511,7 +33520,7 @@
         <v>1455</v>
       </c>
       <c r="C732" s="16" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33522,7 +33531,7 @@
         <v>1457</v>
       </c>
       <c r="C733" s="16" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33533,7 +33542,7 @@
         <v>1459</v>
       </c>
       <c r="C734" s="16" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33544,7 +33553,7 @@
         <v>1461</v>
       </c>
       <c r="C735" s="16" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33555,7 +33564,7 @@
         <v>1463</v>
       </c>
       <c r="C736" s="16" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33575,7 +33584,7 @@
         <v>1467</v>
       </c>
       <c r="C738" s="16" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33586,7 +33595,7 @@
         <v>1469</v>
       </c>
       <c r="C739" s="16" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33597,7 +33606,7 @@
         <v>1471</v>
       </c>
       <c r="C740" s="16" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33608,7 +33617,7 @@
         <v>1473</v>
       </c>
       <c r="C741" s="16" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="345" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33619,7 +33628,7 @@
         <v>1475</v>
       </c>
       <c r="C742" s="16" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33630,7 +33639,7 @@
         <v>1477</v>
       </c>
       <c r="C743" s="16" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33641,7 +33650,7 @@
         <v>1479</v>
       </c>
       <c r="C744" s="16" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33661,7 +33670,7 @@
         <v>1483</v>
       </c>
       <c r="C746" s="16" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33672,7 +33681,7 @@
         <v>1485</v>
       </c>
       <c r="C747" s="16" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33683,7 +33692,7 @@
         <v>1487</v>
       </c>
       <c r="C748" s="16" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33694,7 +33703,7 @@
         <v>1489</v>
       </c>
       <c r="C749" s="16" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33705,7 +33714,7 @@
         <v>1491</v>
       </c>
       <c r="C750" s="16" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33716,7 +33725,7 @@
         <v>1493</v>
       </c>
       <c r="C751" s="16" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33727,7 +33736,7 @@
         <v>1495</v>
       </c>
       <c r="C752" s="16" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33738,7 +33747,7 @@
         <v>1497</v>
       </c>
       <c r="C753" s="16" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33749,7 +33758,7 @@
         <v>1499</v>
       </c>
       <c r="C754" s="16" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33760,7 +33769,7 @@
         <v>1501</v>
       </c>
       <c r="C755" s="16" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33771,7 +33780,7 @@
         <v>1503</v>
       </c>
       <c r="C756" s="16" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33782,7 +33791,7 @@
         <v>1505</v>
       </c>
       <c r="C757" s="16" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33793,7 +33802,7 @@
         <v>1507</v>
       </c>
       <c r="C758" s="16" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33804,7 +33813,7 @@
         <v>1509</v>
       </c>
       <c r="C759" s="16" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33815,7 +33824,7 @@
         <v>1511</v>
       </c>
       <c r="C760" s="16" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33835,7 +33844,7 @@
         <v>1515</v>
       </c>
       <c r="C762" s="16" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33864,7 +33873,7 @@
         <v>1521</v>
       </c>
       <c r="C765" s="16" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33965,7 +33974,7 @@
         <v>1543</v>
       </c>
       <c r="C776" s="16" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33976,7 +33985,7 @@
         <v>1545</v>
       </c>
       <c r="C777" s="16" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33987,7 +33996,7 @@
         <v>1547</v>
       </c>
       <c r="C778" s="16" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33998,7 +34007,7 @@
         <v>1549</v>
       </c>
       <c r="C779" s="16" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34009,7 +34018,7 @@
         <v>1551</v>
       </c>
       <c r="C780" s="16" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34020,7 +34029,7 @@
         <v>1553</v>
       </c>
       <c r="C781" s="16" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34031,7 +34040,7 @@
         <v>1555</v>
       </c>
       <c r="C782" s="16" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34042,7 +34051,7 @@
         <v>1557</v>
       </c>
       <c r="C783" s="16" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34071,7 +34080,7 @@
         <v>1563</v>
       </c>
       <c r="C786" s="16" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34082,7 +34091,7 @@
         <v>1565</v>
       </c>
       <c r="C787" s="16" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34093,7 +34102,7 @@
         <v>1567</v>
       </c>
       <c r="C788" s="16" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34113,7 +34122,7 @@
         <v>1571</v>
       </c>
       <c r="C790" s="16" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34133,7 +34142,7 @@
         <v>1575</v>
       </c>
       <c r="C792" s="16" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34144,7 +34153,7 @@
         <v>1577</v>
       </c>
       <c r="C793" s="16" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34155,7 +34164,7 @@
         <v>1579</v>
       </c>
       <c r="C794" s="16" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34175,7 +34184,7 @@
         <v>1583</v>
       </c>
       <c r="C796" s="16" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34186,7 +34195,7 @@
         <v>1585</v>
       </c>
       <c r="C797" s="16" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34197,7 +34206,7 @@
         <v>1587</v>
       </c>
       <c r="C798" s="16" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34208,7 +34217,7 @@
         <v>1589</v>
       </c>
       <c r="C799" s="16" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34219,7 +34228,7 @@
         <v>1591</v>
       </c>
       <c r="C800" s="16" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34248,7 +34257,7 @@
         <v>1597</v>
       </c>
       <c r="C803" s="16" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34259,7 +34268,7 @@
         <v>1599</v>
       </c>
       <c r="C804" s="16" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34279,7 +34288,7 @@
         <v>1603</v>
       </c>
       <c r="C806" s="16" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34290,7 +34299,7 @@
         <v>1605</v>
       </c>
       <c r="C807" s="16" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34301,7 +34310,7 @@
         <v>1607</v>
       </c>
       <c r="C808" s="16" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34312,7 +34321,7 @@
         <v>1609</v>
       </c>
       <c r="C809" s="16" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34323,7 +34332,7 @@
         <v>1611</v>
       </c>
       <c r="C810" s="16" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34334,7 +34343,7 @@
         <v>1613</v>
       </c>
       <c r="C811" s="16" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34345,7 +34354,7 @@
         <v>1615</v>
       </c>
       <c r="C812" s="16" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34374,7 +34383,7 @@
         <v>1621</v>
       </c>
       <c r="C815" s="16" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34385,7 +34394,7 @@
         <v>1623</v>
       </c>
       <c r="C816" s="16" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34396,7 +34405,7 @@
         <v>1625</v>
       </c>
       <c r="C817" s="16" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34407,7 +34416,7 @@
         <v>1627</v>
       </c>
       <c r="C818" s="16" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34427,7 +34436,7 @@
         <v>1631</v>
       </c>
       <c r="C820" s="16" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34438,7 +34447,7 @@
         <v>1633</v>
       </c>
       <c r="C821" s="16" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34449,7 +34458,7 @@
         <v>1635</v>
       </c>
       <c r="C822" s="16" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34460,7 +34469,7 @@
         <v>1637</v>
       </c>
       <c r="C823" s="16" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34471,7 +34480,7 @@
         <v>1639</v>
       </c>
       <c r="C824" s="16" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34482,7 +34491,7 @@
         <v>1641</v>
       </c>
       <c r="C825" s="16" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34511,7 +34520,7 @@
         <v>1647</v>
       </c>
       <c r="C828" s="16" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34522,7 +34531,7 @@
         <v>1649</v>
       </c>
       <c r="C829" s="16" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34533,7 +34542,7 @@
         <v>1651</v>
       </c>
       <c r="C830" s="16" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34544,7 +34553,7 @@
         <v>1653</v>
       </c>
       <c r="C831" s="16" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34555,7 +34564,7 @@
         <v>1655</v>
       </c>
       <c r="C832" s="16" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34566,7 +34575,7 @@
         <v>1657</v>
       </c>
       <c r="C833" s="16" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34577,7 +34586,7 @@
         <v>1659</v>
       </c>
       <c r="C834" s="16" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34588,7 +34597,7 @@
         <v>1661</v>
       </c>
       <c r="C835" s="16" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34608,7 +34617,7 @@
         <v>1665</v>
       </c>
       <c r="C837" s="16" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34619,7 +34628,7 @@
         <v>1667</v>
       </c>
       <c r="C838" s="16" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34630,7 +34639,7 @@
         <v>1669</v>
       </c>
       <c r="C839" s="16" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34641,7 +34650,7 @@
         <v>1671</v>
       </c>
       <c r="C840" s="16" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34652,7 +34661,7 @@
         <v>1673</v>
       </c>
       <c r="C841" s="16" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34663,7 +34672,7 @@
         <v>1675</v>
       </c>
       <c r="C842" s="16" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34674,7 +34683,7 @@
         <v>1677</v>
       </c>
       <c r="C843" s="16" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34685,7 +34694,7 @@
         <v>1679</v>
       </c>
       <c r="C844" s="16" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34696,7 +34705,7 @@
         <v>1681</v>
       </c>
       <c r="C845" s="16" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34707,7 +34716,7 @@
         <v>1683</v>
       </c>
       <c r="C846" s="16" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34718,7 +34727,7 @@
         <v>1685</v>
       </c>
       <c r="C847" s="16" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34738,7 +34747,7 @@
         <v>1689</v>
       </c>
       <c r="C849" s="16" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34749,7 +34758,7 @@
         <v>1691</v>
       </c>
       <c r="C850" s="16" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34760,7 +34769,7 @@
         <v>1693</v>
       </c>
       <c r="C851" s="16" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34771,7 +34780,7 @@
         <v>1695</v>
       </c>
       <c r="C852" s="16" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34782,7 +34791,7 @@
         <v>1697</v>
       </c>
       <c r="C853" s="16" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34793,7 +34802,7 @@
         <v>1699</v>
       </c>
       <c r="C854" s="16" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34804,7 +34813,7 @@
         <v>1701</v>
       </c>
       <c r="C855" s="16" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="363.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34815,7 +34824,7 @@
         <v>1703</v>
       </c>
       <c r="C856" s="16" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34835,7 +34844,7 @@
         <v>1707</v>
       </c>
       <c r="C858" s="16" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34846,7 +34855,7 @@
         <v>1709</v>
       </c>
       <c r="C859" s="16" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="345" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34857,7 +34866,7 @@
         <v>1711</v>
       </c>
       <c r="C860" s="16" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34868,7 +34877,7 @@
         <v>1713</v>
       </c>
       <c r="C861" s="16" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34879,7 +34888,7 @@
         <v>1715</v>
       </c>
       <c r="C862" s="16" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34890,7 +34899,7 @@
         <v>1717</v>
       </c>
       <c r="C863" s="16" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34901,7 +34910,7 @@
         <v>1719</v>
       </c>
       <c r="C864" s="16" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34912,7 +34921,7 @@
         <v>1721</v>
       </c>
       <c r="C865" s="16" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34923,7 +34932,7 @@
         <v>1723</v>
       </c>
       <c r="C866" s="16" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34934,7 +34943,7 @@
         <v>1725</v>
       </c>
       <c r="C867" s="16" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34945,7 +34954,7 @@
         <v>1727</v>
       </c>
       <c r="C868" s="16" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34956,7 +34965,7 @@
         <v>1729</v>
       </c>
       <c r="C869" s="16" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34967,7 +34976,7 @@
         <v>1731</v>
       </c>
       <c r="C870" s="16" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34978,7 +34987,7 @@
         <v>1733</v>
       </c>
       <c r="C871" s="16" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34989,7 +34998,7 @@
         <v>1735</v>
       </c>
       <c r="C872" s="16" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35000,7 +35009,7 @@
         <v>1737</v>
       </c>
       <c r="C873" s="16" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35011,7 +35020,7 @@
         <v>1739</v>
       </c>
       <c r="C874" s="16" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35022,7 +35031,7 @@
         <v>1741</v>
       </c>
       <c r="C875" s="16" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35033,7 +35042,7 @@
         <v>1743</v>
       </c>
       <c r="C876" s="16" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35044,7 +35053,7 @@
         <v>1745</v>
       </c>
       <c r="C877" s="16" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="330" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35055,7 +35064,7 @@
         <v>1747</v>
       </c>
       <c r="C878" s="16" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35066,7 +35075,7 @@
         <v>1749</v>
       </c>
       <c r="C879" s="16" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35077,7 +35086,7 @@
         <v>1751</v>
       </c>
       <c r="C880" s="16" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35088,7 +35097,7 @@
         <v>1753</v>
       </c>
       <c r="C881" s="16" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35099,7 +35108,7 @@
         <v>1755</v>
       </c>
       <c r="C882" s="16" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35110,7 +35119,7 @@
         <v>1757</v>
       </c>
       <c r="C883" s="16" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35121,7 +35130,7 @@
         <v>1759</v>
       </c>
       <c r="C884" s="16" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35132,7 +35141,7 @@
         <v>1761</v>
       </c>
       <c r="C885" s="16" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35152,7 +35161,7 @@
         <v>1765</v>
       </c>
       <c r="C887" s="16" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35172,7 +35181,7 @@
         <v>1769</v>
       </c>
       <c r="C889" s="16" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35183,7 +35192,7 @@
         <v>1771</v>
       </c>
       <c r="C890" s="16" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35194,7 +35203,7 @@
         <v>1773</v>
       </c>
       <c r="C891" s="16" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35205,7 +35214,7 @@
         <v>1775</v>
       </c>
       <c r="C892" s="16" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35216,7 +35225,7 @@
         <v>1777</v>
       </c>
       <c r="C893" s="16" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35227,7 +35236,7 @@
         <v>1779</v>
       </c>
       <c r="C894" s="16" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35238,7 +35247,7 @@
         <v>1781</v>
       </c>
       <c r="C895" s="16" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35249,7 +35258,7 @@
         <v>1783</v>
       </c>
       <c r="C896" s="16" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35260,7 +35269,7 @@
         <v>1785</v>
       </c>
       <c r="C897" s="16" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35271,7 +35280,7 @@
         <v>1787</v>
       </c>
       <c r="C898" s="16" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35282,7 +35291,7 @@
         <v>1789</v>
       </c>
       <c r="C899" s="16" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35293,7 +35302,7 @@
         <v>1791</v>
       </c>
       <c r="C900" s="16" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35304,7 +35313,7 @@
         <v>1793</v>
       </c>
       <c r="C901" s="16" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35315,7 +35324,7 @@
         <v>1795</v>
       </c>
       <c r="C902" s="16" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35326,7 +35335,7 @@
         <v>1797</v>
       </c>
       <c r="C903" s="16" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35337,7 +35346,7 @@
         <v>1799</v>
       </c>
       <c r="C904" s="16" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35348,7 +35357,7 @@
         <v>1801</v>
       </c>
       <c r="C905" s="16" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35359,7 +35368,7 @@
         <v>1803</v>
       </c>
       <c r="C906" s="16" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35370,7 +35379,7 @@
         <v>1805</v>
       </c>
       <c r="C907" s="16" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35381,7 +35390,7 @@
         <v>1807</v>
       </c>
       <c r="C908" s="16" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35392,7 +35401,7 @@
         <v>1809</v>
       </c>
       <c r="C909" s="16" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35403,7 +35412,7 @@
         <v>1811</v>
       </c>
       <c r="C910" s="16" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35414,7 +35423,7 @@
         <v>1813</v>
       </c>
       <c r="C911" s="16" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35434,7 +35443,7 @@
         <v>1817</v>
       </c>
       <c r="C913" s="16" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35445,7 +35454,7 @@
         <v>1819</v>
       </c>
       <c r="C914" s="16" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35456,7 +35465,7 @@
         <v>1821</v>
       </c>
       <c r="C915" s="16" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35467,7 +35476,7 @@
         <v>1823</v>
       </c>
       <c r="C916" s="16" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35478,7 +35487,7 @@
         <v>1825</v>
       </c>
       <c r="C917" s="16" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35489,7 +35498,7 @@
         <v>1827</v>
       </c>
       <c r="C918" s="16" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35500,7 +35509,7 @@
         <v>1829</v>
       </c>
       <c r="C919" s="16" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35520,7 +35529,7 @@
         <v>1833</v>
       </c>
       <c r="C921" s="16" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35531,7 +35540,7 @@
         <v>1835</v>
       </c>
       <c r="C922" s="16" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35542,7 +35551,7 @@
         <v>1837</v>
       </c>
       <c r="C923" s="16" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35553,7 +35562,7 @@
         <v>1839</v>
       </c>
       <c r="C924" s="16" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35564,7 +35573,7 @@
         <v>1841</v>
       </c>
       <c r="C925" s="16" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35575,7 +35584,7 @@
         <v>1843</v>
       </c>
       <c r="C926" s="16" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35595,7 +35604,7 @@
         <v>1847</v>
       </c>
       <c r="C928" s="16" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35606,7 +35615,7 @@
         <v>1849</v>
       </c>
       <c r="C929" s="16" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35635,7 +35644,7 @@
         <v>1855</v>
       </c>
       <c r="C932" s="16" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35646,7 +35655,7 @@
         <v>1857</v>
       </c>
       <c r="C933" s="16" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35657,7 +35666,7 @@
         <v>1859</v>
       </c>
       <c r="C934" s="16" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35668,7 +35677,7 @@
         <v>1861</v>
       </c>
       <c r="C935" s="16" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35679,7 +35688,7 @@
         <v>1863</v>
       </c>
       <c r="C936" s="16" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35690,7 +35699,7 @@
         <v>1865</v>
       </c>
       <c r="C937" s="16" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35701,7 +35710,7 @@
         <v>1867</v>
       </c>
       <c r="C938" s="16" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35712,7 +35721,7 @@
         <v>1869</v>
       </c>
       <c r="C939" s="16" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="565.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35723,7 +35732,7 @@
         <v>1871</v>
       </c>
       <c r="C940" s="16" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35743,7 +35752,7 @@
         <v>1875</v>
       </c>
       <c r="C942" s="16" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35754,7 +35763,7 @@
         <v>1877</v>
       </c>
       <c r="C943" s="16" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35765,7 +35774,7 @@
         <v>1879</v>
       </c>
       <c r="C944" s="16" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35776,7 +35785,7 @@
         <v>1881</v>
       </c>
       <c r="C945" s="16" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35787,7 +35796,7 @@
         <v>1883</v>
       </c>
       <c r="C946" s="16" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35798,7 +35807,7 @@
         <v>1885</v>
       </c>
       <c r="C947" s="16" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35809,7 +35818,7 @@
         <v>1887</v>
       </c>
       <c r="C948" s="16" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35829,7 +35838,7 @@
         <v>1891</v>
       </c>
       <c r="C950" s="16" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35840,7 +35849,7 @@
         <v>1893</v>
       </c>
       <c r="C951" s="16" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35851,7 +35860,7 @@
         <v>1895</v>
       </c>
       <c r="C952" s="16" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35862,7 +35871,7 @@
         <v>1897</v>
       </c>
       <c r="C953" s="16" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35873,7 +35882,7 @@
         <v>1899</v>
       </c>
       <c r="C954" s="16" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35884,7 +35893,7 @@
         <v>1901</v>
       </c>
       <c r="C955" s="16" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35895,7 +35904,7 @@
         <v>1903</v>
       </c>
       <c r="C956" s="16" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35906,7 +35915,7 @@
         <v>1905</v>
       </c>
       <c r="C957" s="16" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35926,7 +35935,7 @@
         <v>1909</v>
       </c>
       <c r="C959" s="16" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35937,7 +35946,7 @@
         <v>1911</v>
       </c>
       <c r="C960" s="16" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="390" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35948,7 +35957,7 @@
         <v>1913</v>
       </c>
       <c r="C961" s="16" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35959,7 +35968,7 @@
         <v>1915</v>
       </c>
       <c r="C962" s="16" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35979,7 +35988,7 @@
         <v>1919</v>
       </c>
       <c r="C964" s="16" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35990,7 +35999,7 @@
         <v>1921</v>
       </c>
       <c r="C965" s="16" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36001,7 +36010,7 @@
         <v>1923</v>
       </c>
       <c r="C966" s="16" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36012,7 +36021,7 @@
         <v>1925</v>
       </c>
       <c r="C967" s="16" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36023,7 +36032,7 @@
         <v>1927</v>
       </c>
       <c r="C968" s="16" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36034,7 +36043,7 @@
         <v>1929</v>
       </c>
       <c r="C969" s="16" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36054,7 +36063,7 @@
         <v>1933</v>
       </c>
       <c r="C971" s="16" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36065,7 +36074,7 @@
         <v>1935</v>
       </c>
       <c r="C972" s="16" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36076,7 +36085,7 @@
         <v>1937</v>
       </c>
       <c r="C973" s="16" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36087,7 +36096,7 @@
         <v>1939</v>
       </c>
       <c r="C974" s="16" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36107,7 +36116,7 @@
         <v>1943</v>
       </c>
       <c r="C976" s="16" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36118,7 +36127,7 @@
         <v>1945</v>
       </c>
       <c r="C977" s="16" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36129,7 +36138,7 @@
         <v>1947</v>
       </c>
       <c r="C978" s="16" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36140,7 +36149,7 @@
         <v>1949</v>
       </c>
       <c r="C979" s="16" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36151,7 +36160,7 @@
         <v>1951</v>
       </c>
       <c r="C980" s="16" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36171,7 +36180,7 @@
         <v>1955</v>
       </c>
       <c r="C982" s="16" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36182,7 +36191,7 @@
         <v>1957</v>
       </c>
       <c r="C983" s="16" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36202,7 +36211,7 @@
         <v>1961</v>
       </c>
       <c r="C985" s="16" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36213,7 +36222,7 @@
         <v>1963</v>
       </c>
       <c r="C986" s="16" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36233,7 +36242,7 @@
         <v>1967</v>
       </c>
       <c r="C988" s="16" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36244,7 +36253,7 @@
         <v>1969</v>
       </c>
       <c r="C989" s="16" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36255,7 +36264,7 @@
         <v>1971</v>
       </c>
       <c r="C990" s="16" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36266,7 +36275,7 @@
         <v>1973</v>
       </c>
       <c r="C991" s="16" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36277,7 +36286,7 @@
         <v>1975</v>
       </c>
       <c r="C992" s="16" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36288,7 +36297,7 @@
         <v>1977</v>
       </c>
       <c r="C993" s="16" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36299,7 +36308,7 @@
         <v>1979</v>
       </c>
       <c r="C994" s="16" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36310,7 +36319,7 @@
         <v>1981</v>
       </c>
       <c r="C995" s="16" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36330,7 +36339,7 @@
         <v>1985</v>
       </c>
       <c r="C997" s="16" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36341,7 +36350,7 @@
         <v>1987</v>
       </c>
       <c r="C998" s="16" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36352,7 +36361,7 @@
         <v>1989</v>
       </c>
       <c r="C999" s="16" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36363,7 +36372,7 @@
         <v>1991</v>
       </c>
       <c r="C1000" s="16" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36383,7 +36392,7 @@
         <v>1995</v>
       </c>
       <c r="C1002" s="16" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36394,7 +36403,7 @@
         <v>1997</v>
       </c>
       <c r="C1003" s="16" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36405,7 +36414,7 @@
         <v>1999</v>
       </c>
       <c r="C1004" s="16" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36416,7 +36425,7 @@
         <v>2001</v>
       </c>
       <c r="C1005" s="16" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36427,7 +36436,7 @@
         <v>2003</v>
       </c>
       <c r="C1006" s="16" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36447,7 +36456,7 @@
         <v>2007</v>
       </c>
       <c r="C1008" s="16" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36458,7 +36467,7 @@
         <v>2009</v>
       </c>
       <c r="C1009" s="16" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36469,7 +36478,7 @@
         <v>2011</v>
       </c>
       <c r="C1010" s="16" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36480,7 +36489,7 @@
         <v>2013</v>
       </c>
       <c r="C1011" s="16" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36491,7 +36500,7 @@
         <v>2015</v>
       </c>
       <c r="C1012" s="16" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36511,7 +36520,7 @@
         <v>2019</v>
       </c>
       <c r="C1014" s="16" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36522,7 +36531,7 @@
         <v>2021</v>
       </c>
       <c r="C1015" s="16" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36551,7 +36560,7 @@
         <v>2027</v>
       </c>
       <c r="C1018" s="16" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36562,7 +36571,7 @@
         <v>2029</v>
       </c>
       <c r="C1019" s="16" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36573,7 +36582,7 @@
         <v>2031</v>
       </c>
       <c r="C1020" s="16" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36584,7 +36593,7 @@
         <v>2033</v>
       </c>
       <c r="C1021" s="16" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36595,7 +36604,7 @@
         <v>2035</v>
       </c>
       <c r="C1022" s="16" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36606,7 +36615,7 @@
         <v>2037</v>
       </c>
       <c r="C1023" s="16" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36617,7 +36626,7 @@
         <v>2039</v>
       </c>
       <c r="C1024" s="16" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36628,7 +36637,7 @@
         <v>2041</v>
       </c>
       <c r="C1025" s="16" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="345" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36639,7 +36648,7 @@
         <v>2043</v>
       </c>
       <c r="C1026" s="16" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="330" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36650,7 +36659,7 @@
         <v>2045</v>
       </c>
       <c r="C1027" s="16" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36670,7 +36679,7 @@
         <v>2049</v>
       </c>
       <c r="C1029" s="16" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36699,7 +36708,7 @@
         <v>2055</v>
       </c>
       <c r="C1032" s="16" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36710,7 +36719,7 @@
         <v>2057</v>
       </c>
       <c r="C1033" s="16" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36721,7 +36730,7 @@
         <v>2059</v>
       </c>
       <c r="C1034" s="16" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36759,7 +36768,7 @@
         <v>2067</v>
       </c>
       <c r="C1038" s="16" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36770,7 +36779,7 @@
         <v>2069</v>
       </c>
       <c r="C1039" s="16" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36781,7 +36790,7 @@
         <v>2071</v>
       </c>
       <c r="C1040" s="16" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="285" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36792,7 +36801,7 @@
         <v>2073</v>
       </c>
       <c r="C1041" s="16" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36803,7 +36812,7 @@
         <v>2075</v>
       </c>
       <c r="C1042" s="16" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36814,7 +36823,7 @@
         <v>2077</v>
       </c>
       <c r="C1043" s="16" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36834,7 +36843,7 @@
         <v>2081</v>
       </c>
       <c r="C1045" s="16" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36845,7 +36854,7 @@
         <v>2083</v>
       </c>
       <c r="C1046" s="16" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36856,7 +36865,7 @@
         <v>2085</v>
       </c>
       <c r="C1047" s="16" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36867,7 +36876,7 @@
         <v>2087</v>
       </c>
       <c r="C1048" s="16" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36887,7 +36896,7 @@
         <v>2091</v>
       </c>
       <c r="C1050" s="16" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36898,7 +36907,7 @@
         <v>2093</v>
       </c>
       <c r="C1051" s="16" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36909,7 +36918,7 @@
         <v>2095</v>
       </c>
       <c r="C1052" s="16" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36920,7 +36929,7 @@
         <v>2097</v>
       </c>
       <c r="C1053" s="16" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36931,7 +36940,7 @@
         <v>2099</v>
       </c>
       <c r="C1054" s="16" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36942,7 +36951,7 @@
         <v>2101</v>
       </c>
       <c r="C1055" s="16" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36953,7 +36962,7 @@
         <v>2103</v>
       </c>
       <c r="C1056" s="16" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36973,7 +36982,7 @@
         <v>2107</v>
       </c>
       <c r="C1058" s="16" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37002,7 +37011,7 @@
         <v>2113</v>
       </c>
       <c r="C1061" s="16" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37013,7 +37022,7 @@
         <v>2115</v>
       </c>
       <c r="C1062" s="16" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37024,7 +37033,7 @@
         <v>2117</v>
       </c>
       <c r="C1063" s="16" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37035,7 +37044,7 @@
         <v>2119</v>
       </c>
       <c r="C1064" s="16" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37064,7 +37073,7 @@
         <v>2125</v>
       </c>
       <c r="C1067" s="16" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37093,7 +37102,7 @@
         <v>2131</v>
       </c>
       <c r="C1070" s="16" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37104,7 +37113,7 @@
         <v>2133</v>
       </c>
       <c r="C1071" s="16" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37115,7 +37124,7 @@
         <v>2135</v>
       </c>
       <c r="C1072" s="16" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37144,7 +37153,7 @@
         <v>2141</v>
       </c>
       <c r="C1075" s="16" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="315" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37155,7 +37164,7 @@
         <v>2143</v>
       </c>
       <c r="C1076" s="16" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37166,7 +37175,7 @@
         <v>2145</v>
       </c>
       <c r="C1077" s="16" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37177,15 +37186,15 @@
         <v>2147</v>
       </c>
       <c r="C1078" s="16" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="16" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="B1079" s="16" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="C1079" s="16"/>
     </row>
@@ -37197,7 +37206,7 @@
         <v>2149</v>
       </c>
       <c r="C1080" s="16" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37208,7 +37217,7 @@
         <v>2151</v>
       </c>
       <c r="C1081" s="16" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37219,7 +37228,7 @@
         <v>2153</v>
       </c>
       <c r="C1082" s="16" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37230,7 +37239,7 @@
         <v>2155</v>
       </c>
       <c r="C1083" s="16" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37241,7 +37250,7 @@
         <v>2157</v>
       </c>
       <c r="C1084" s="16" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37252,7 +37261,7 @@
         <v>2159</v>
       </c>
       <c r="C1085" s="16" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37263,7 +37272,7 @@
         <v>2161</v>
       </c>
       <c r="C1086" s="16" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37274,7 +37283,7 @@
         <v>2163</v>
       </c>
       <c r="C1087" s="16" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37285,7 +37294,7 @@
         <v>2165</v>
       </c>
       <c r="C1088" s="16" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37296,7 +37305,7 @@
         <v>2167</v>
       </c>
       <c r="C1089" s="16" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37307,7 +37316,7 @@
         <v>2169</v>
       </c>
       <c r="C1090" s="16" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37318,7 +37327,7 @@
         <v>2171</v>
       </c>
       <c r="C1091" s="16" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37329,7 +37338,7 @@
         <v>2173</v>
       </c>
       <c r="C1092" s="16" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37340,7 +37349,7 @@
         <v>2175</v>
       </c>
       <c r="C1093" s="16" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37351,7 +37360,7 @@
         <v>2177</v>
       </c>
       <c r="C1094" s="16" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37362,7 +37371,7 @@
         <v>2179</v>
       </c>
       <c r="C1095" s="16" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37373,7 +37382,7 @@
         <v>2181</v>
       </c>
       <c r="C1096" s="16" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37402,7 +37411,7 @@
         <v>2187</v>
       </c>
       <c r="C1099" s="16" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37413,7 +37422,7 @@
         <v>2189</v>
       </c>
       <c r="C1100" s="16" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37424,7 +37433,7 @@
         <v>2191</v>
       </c>
       <c r="C1101" s="16" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37435,7 +37444,7 @@
         <v>2193</v>
       </c>
       <c r="C1102" s="16" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37446,7 +37455,7 @@
         <v>2195</v>
       </c>
       <c r="C1103" s="16" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37457,7 +37466,7 @@
         <v>2197</v>
       </c>
       <c r="C1104" s="16" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="417.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37468,7 +37477,7 @@
         <v>2199</v>
       </c>
       <c r="C1105" s="16" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37488,7 +37497,7 @@
         <v>2203</v>
       </c>
       <c r="C1107" s="16" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37499,7 +37508,7 @@
         <v>2205</v>
       </c>
       <c r="C1108" s="16" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37510,7 +37519,7 @@
         <v>2207</v>
       </c>
       <c r="C1109" s="16" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37521,7 +37530,7 @@
         <v>2209</v>
       </c>
       <c r="C1110" s="16" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37532,7 +37541,7 @@
         <v>2211</v>
       </c>
       <c r="C1111" s="16" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37543,7 +37552,7 @@
         <v>2213</v>
       </c>
       <c r="C1112" s="16" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37554,7 +37563,7 @@
         <v>2215</v>
       </c>
       <c r="C1113" s="16" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37574,7 +37583,7 @@
         <v>2219</v>
       </c>
       <c r="C1115" s="16" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37585,7 +37594,7 @@
         <v>2221</v>
       </c>
       <c r="C1116" s="16" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37596,7 +37605,7 @@
         <v>2223</v>
       </c>
       <c r="C1117" s="16" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37616,7 +37625,7 @@
         <v>2227</v>
       </c>
       <c r="C1119" s="16" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37627,7 +37636,7 @@
         <v>2229</v>
       </c>
       <c r="C1120" s="16" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37638,7 +37647,7 @@
         <v>2231</v>
       </c>
       <c r="C1121" s="16" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37649,7 +37658,7 @@
         <v>2233</v>
       </c>
       <c r="C1122" s="16" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37660,7 +37669,7 @@
         <v>2235</v>
       </c>
       <c r="C1123" s="16" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37671,7 +37680,7 @@
         <v>2237</v>
       </c>
       <c r="C1124" s="16" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37682,7 +37691,7 @@
         <v>2239</v>
       </c>
       <c r="C1125" s="16" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37693,7 +37702,7 @@
         <v>2241</v>
       </c>
       <c r="C1126" s="16" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37704,7 +37713,7 @@
         <v>2243</v>
       </c>
       <c r="C1127" s="16" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37724,7 +37733,7 @@
         <v>2247</v>
       </c>
       <c r="C1129" s="16" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37744,7 +37753,7 @@
         <v>2251</v>
       </c>
       <c r="C1131" s="16" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37755,7 +37764,7 @@
         <v>2253</v>
       </c>
       <c r="C1132" s="16" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="1133" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37766,7 +37775,7 @@
         <v>2255</v>
       </c>
       <c r="C1133" s="16" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37777,7 +37786,7 @@
         <v>2257</v>
       </c>
       <c r="C1134" s="16" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="1135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37797,7 +37806,7 @@
         <v>2261</v>
       </c>
       <c r="C1136" s="16" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="1137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37835,7 +37844,7 @@
         <v>2269</v>
       </c>
       <c r="C1140" s="16" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37846,7 +37855,7 @@
         <v>2271</v>
       </c>
       <c r="C1141" s="16" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="511.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37857,7 +37866,7 @@
         <v>2273</v>
       </c>
       <c r="C1142" s="16" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37868,7 +37877,7 @@
         <v>2275</v>
       </c>
       <c r="C1143" s="16" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="1144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37888,7 +37897,7 @@
         <v>2279</v>
       </c>
       <c r="C1145" s="16" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="1146" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37899,7 +37908,7 @@
         <v>2281</v>
       </c>
       <c r="C1146" s="16" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37928,7 +37937,7 @@
         <v>2287</v>
       </c>
       <c r="C1149" s="16" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37939,7 +37948,7 @@
         <v>2289</v>
       </c>
       <c r="C1150" s="16" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37950,7 +37959,7 @@
         <v>2291</v>
       </c>
       <c r="C1151" s="16" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37961,7 +37970,7 @@
         <v>2293</v>
       </c>
       <c r="C1152" s="16" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37972,7 +37981,7 @@
         <v>2295</v>
       </c>
       <c r="C1153" s="16" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37983,7 +37992,7 @@
         <v>2297</v>
       </c>
       <c r="C1154" s="16" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="1155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38003,7 +38012,7 @@
         <v>2301</v>
       </c>
       <c r="C1156" s="16" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="1157" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38014,7 +38023,7 @@
         <v>2303</v>
       </c>
       <c r="C1157" s="16" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="315" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38025,7 +38034,7 @@
         <v>2305</v>
       </c>
       <c r="C1158" s="16" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="1159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38045,7 +38054,7 @@
         <v>2309</v>
       </c>
       <c r="C1160" s="16" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38056,7 +38065,7 @@
         <v>2311</v>
       </c>
       <c r="C1161" s="16" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38067,7 +38076,7 @@
         <v>2313</v>
       </c>
       <c r="C1162" s="16" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38078,7 +38087,7 @@
         <v>2315</v>
       </c>
       <c r="C1163" s="16" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38098,7 +38107,7 @@
         <v>2319</v>
       </c>
       <c r="C1165" s="16" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38109,7 +38118,7 @@
         <v>2321</v>
       </c>
       <c r="C1166" s="16" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38120,7 +38129,7 @@
         <v>2323</v>
       </c>
       <c r="C1167" s="16" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="1168" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38131,7 +38140,7 @@
         <v>2325</v>
       </c>
       <c r="C1168" s="16" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38142,7 +38151,7 @@
         <v>2327</v>
       </c>
       <c r="C1169" s="16" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1170" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38153,7 +38162,7 @@
         <v>2329</v>
       </c>
       <c r="C1170" s="16" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38164,7 +38173,7 @@
         <v>2331</v>
       </c>
       <c r="C1171" s="16" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38175,7 +38184,7 @@
         <v>2333</v>
       </c>
       <c r="C1172" s="16" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38195,7 +38204,7 @@
         <v>2337</v>
       </c>
       <c r="C1174" s="16" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38206,7 +38215,7 @@
         <v>2339</v>
       </c>
       <c r="C1175" s="16" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38217,7 +38226,7 @@
         <v>2341</v>
       </c>
       <c r="C1176" s="16" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38228,7 +38237,7 @@
         <v>2343</v>
       </c>
       <c r="C1177" s="16" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38239,7 +38248,7 @@
         <v>2345</v>
       </c>
       <c r="C1178" s="16" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="1179" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38250,7 +38259,7 @@
         <v>2347</v>
       </c>
       <c r="C1179" s="16" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38270,7 +38279,7 @@
         <v>2351</v>
       </c>
       <c r="C1181" s="16" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38281,7 +38290,7 @@
         <v>2353</v>
       </c>
       <c r="C1182" s="16" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="1183" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38292,7 +38301,7 @@
         <v>2355</v>
       </c>
       <c r="C1183" s="16" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="1184" customFormat="false" ht="315" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38303,7 +38312,7 @@
         <v>2357</v>
       </c>
       <c r="C1184" s="16" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38314,7 +38323,7 @@
         <v>2359</v>
       </c>
       <c r="C1185" s="16" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38334,7 +38343,7 @@
         <v>2363</v>
       </c>
       <c r="C1187" s="16" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38345,7 +38354,7 @@
         <v>2365</v>
       </c>
       <c r="C1188" s="16" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38365,7 +38374,7 @@
         <v>2369</v>
       </c>
       <c r="C1190" s="16" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38376,7 +38385,7 @@
         <v>2371</v>
       </c>
       <c r="C1191" s="16" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38387,7 +38396,7 @@
         <v>2373</v>
       </c>
       <c r="C1192" s="16" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="1193" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38398,7 +38407,7 @@
         <v>2375</v>
       </c>
       <c r="C1193" s="16" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38409,7 +38418,7 @@
         <v>2377</v>
       </c>
       <c r="C1194" s="16" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="1195" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38420,7 +38429,7 @@
         <v>2379</v>
       </c>
       <c r="C1195" s="16" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38431,7 +38440,7 @@
         <v>2381</v>
       </c>
       <c r="C1196" s="16" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38442,7 +38451,7 @@
         <v>2383</v>
       </c>
       <c r="C1197" s="16" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38453,7 +38462,7 @@
         <v>2385</v>
       </c>
       <c r="C1198" s="16" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38464,7 +38473,7 @@
         <v>2387</v>
       </c>
       <c r="C1199" s="16" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38475,7 +38484,7 @@
         <v>2389</v>
       </c>
       <c r="C1200" s="16" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38486,7 +38495,7 @@
         <v>2391</v>
       </c>
       <c r="C1201" s="16" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38497,7 +38506,7 @@
         <v>2393</v>
       </c>
       <c r="C1202" s="16" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="1203" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38508,7 +38517,7 @@
         <v>2395</v>
       </c>
       <c r="C1203" s="16" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38528,7 +38537,7 @@
         <v>2399</v>
       </c>
       <c r="C1205" s="16" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38539,7 +38548,7 @@
         <v>2401</v>
       </c>
       <c r="C1206" s="16" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38550,7 +38559,7 @@
         <v>2403</v>
       </c>
       <c r="C1207" s="16" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38561,7 +38570,7 @@
         <v>2405</v>
       </c>
       <c r="C1208" s="16" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38581,7 +38590,7 @@
         <v>2409</v>
       </c>
       <c r="C1210" s="16" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38592,7 +38601,7 @@
         <v>2411</v>
       </c>
       <c r="C1211" s="16" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="1212" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38603,7 +38612,7 @@
         <v>2413</v>
       </c>
       <c r="C1212" s="16" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38623,7 +38632,7 @@
         <v>2417</v>
       </c>
       <c r="C1214" s="16" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="1215" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38634,7 +38643,7 @@
         <v>2419</v>
       </c>
       <c r="C1215" s="16" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38654,7 +38663,7 @@
         <v>2423</v>
       </c>
       <c r="C1217" s="16" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="1218" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38665,7 +38674,7 @@
         <v>2425</v>
       </c>
       <c r="C1218" s="16" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="1219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38685,7 +38694,7 @@
         <v>2429</v>
       </c>
       <c r="C1220" s="16" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38696,7 +38705,7 @@
         <v>2431</v>
       </c>
       <c r="C1221" s="16" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="1222" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38707,7 +38716,7 @@
         <v>2433</v>
       </c>
       <c r="C1222" s="16" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="1223" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38718,7 +38727,7 @@
         <v>2435</v>
       </c>
       <c r="C1223" s="16" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="1224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38738,7 +38747,7 @@
         <v>2439</v>
       </c>
       <c r="C1225" s="16" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="1226" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38749,7 +38758,7 @@
         <v>2441</v>
       </c>
       <c r="C1226" s="16" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38760,7 +38769,7 @@
         <v>2443</v>
       </c>
       <c r="C1227" s="16" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38771,7 +38780,7 @@
         <v>2445</v>
       </c>
       <c r="C1228" s="16" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38791,7 +38800,7 @@
         <v>2449</v>
       </c>
       <c r="C1230" s="16" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="1231" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38802,7 +38811,7 @@
         <v>2451</v>
       </c>
       <c r="C1231" s="16" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="1232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38813,7 +38822,7 @@
         <v>2453</v>
       </c>
       <c r="C1232" s="16" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="1233" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38824,7 +38833,7 @@
         <v>2455</v>
       </c>
       <c r="C1233" s="16" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="1234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38835,7 +38844,7 @@
         <v>2457</v>
       </c>
       <c r="C1234" s="16" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38855,7 +38864,7 @@
         <v>2461</v>
       </c>
       <c r="C1236" s="16" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="1237" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38866,7 +38875,7 @@
         <v>2463</v>
       </c>
       <c r="C1237" s="16" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="1238" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38877,7 +38886,7 @@
         <v>2465</v>
       </c>
       <c r="C1238" s="16" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="1239" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38888,7 +38897,7 @@
         <v>2467</v>
       </c>
       <c r="C1239" s="16" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="1240" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38899,7 +38908,7 @@
         <v>2469</v>
       </c>
       <c r="C1240" s="16" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38910,7 +38919,7 @@
         <v>2471</v>
       </c>
       <c r="C1241" s="16" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="1242" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38921,7 +38930,7 @@
         <v>2473</v>
       </c>
       <c r="C1242" s="16" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38932,7 +38941,7 @@
         <v>2475</v>
       </c>
       <c r="C1243" s="16" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
     </row>
   </sheetData>
